--- a/raw_data/20200818_saline/20200818_Sensor0_Test_48.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_48.xlsx
@@ -1,825 +1,1241 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE63DA2B-11D4-46E7-98C2-5982837B00A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>42302.897679</v>
+        <v>42302.897679000002</v>
       </c>
       <c r="B2" s="1">
         <v>11.750805</v>
       </c>
       <c r="C2" s="1">
-        <v>911.981000</v>
+        <v>911.98099999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-182.839000</v>
+        <v>-182.839</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>42313.319123</v>
+        <v>42313.319123000001</v>
       </c>
       <c r="G2" s="1">
-        <v>11.753700</v>
+        <v>11.7537</v>
       </c>
       <c r="H2" s="1">
-        <v>926.442000</v>
+        <v>926.44200000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-155.894000</v>
+        <v>-155.89400000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>42323.786164</v>
+        <v>42323.786163999997</v>
       </c>
       <c r="L2" s="1">
-        <v>11.756607</v>
+        <v>11.756607000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>947.016000</v>
+        <v>947.01599999999996</v>
       </c>
       <c r="N2" s="1">
-        <v>-113.664000</v>
+        <v>-113.664</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>42334.295397</v>
+        <v>42334.295397000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>11.759526</v>
+        <v>11.759525999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>953.674000</v>
+        <v>953.67399999999998</v>
       </c>
       <c r="S2" s="1">
-        <v>-100.103000</v>
+        <v>-100.10299999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>42344.878535</v>
+        <v>42344.878535000003</v>
       </c>
       <c r="V2" s="1">
         <v>11.762466</v>
       </c>
       <c r="W2" s="1">
-        <v>960.365000</v>
+        <v>960.36500000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.035000</v>
+        <v>-88.034999999999997</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>42355.640730</v>
+        <v>42355.640729999999</v>
       </c>
       <c r="AA2" s="1">
         <v>11.765456</v>
       </c>
       <c r="AB2" s="1">
-        <v>968.178000</v>
+        <v>968.178</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.749800</v>
+        <v>-79.749799999999993</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>42366.194604</v>
+        <v>42366.194603999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>11.768387</v>
+        <v>11.768387000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>973.569000</v>
+        <v>973.56899999999996</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.882100</v>
+        <v>-79.882099999999994</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>42376.615551</v>
+        <v>42376.615551000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>11.771282</v>
+        <v>11.771281999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>981.864000</v>
+        <v>981.86400000000003</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.051600</v>
+        <v>-88.051599999999993</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>42387.197199</v>
+        <v>42387.197199000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>11.774221</v>
+        <v>11.774221000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>991.264000</v>
+        <v>991.26400000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.245000</v>
+        <v>-103.245</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>42398.935521</v>
+        <v>42398.935520999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>11.777482</v>
+        <v>11.777481999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="AW2" s="1">
-        <v>-125.043000</v>
+        <v>-125.04300000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>42410.107906</v>
+        <v>42410.107905999997</v>
       </c>
       <c r="AZ2" s="1">
         <v>11.780586</v>
       </c>
       <c r="BA2" s="1">
-        <v>1012.500000</v>
+        <v>1012.5</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.981000</v>
+        <v>-143.98099999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>42420.770899</v>
+        <v>42420.770899000003</v>
       </c>
       <c r="BE2" s="1">
         <v>11.783547</v>
       </c>
       <c r="BF2" s="1">
-        <v>1057.930000</v>
+        <v>1057.93</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.731000</v>
+        <v>-229.73099999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>42431.419049</v>
+        <v>42431.419048999996</v>
       </c>
       <c r="BJ2" s="1">
         <v>11.786505</v>
       </c>
       <c r="BK2" s="1">
-        <v>1137.490000</v>
+        <v>1137.49</v>
       </c>
       <c r="BL2" s="1">
-        <v>-367.737000</v>
+        <v>-367.73700000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>42442.592390</v>
+        <v>42442.592389999998</v>
       </c>
       <c r="BO2" s="1">
         <v>11.789609</v>
       </c>
       <c r="BP2" s="1">
-        <v>1269.330000</v>
+        <v>1269.33</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-581.861000</v>
+        <v>-581.86099999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>42453.326808</v>
+        <v>42453.326807999998</v>
       </c>
       <c r="BT2" s="1">
         <v>11.792591</v>
       </c>
       <c r="BU2" s="1">
-        <v>1418.160000</v>
+        <v>1418.16</v>
       </c>
       <c r="BV2" s="1">
-        <v>-811.946000</v>
+        <v>-811.94600000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>42464.355849</v>
       </c>
       <c r="BY2" s="1">
-        <v>11.795654</v>
+        <v>11.795654000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1582.130000</v>
+        <v>1582.13</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1051.580000</v>
+        <v>-1051.58</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>42475.235595</v>
+        <v>42475.235594999998</v>
       </c>
       <c r="CD2" s="1">
         <v>11.798677</v>
       </c>
       <c r="CE2" s="1">
-        <v>1997.320000</v>
+        <v>1997.32</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1611.940000</v>
+        <v>-1611.94</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>42303.302414</v>
+        <v>42303.302413999998</v>
       </c>
       <c r="B3" s="1">
-        <v>11.750917</v>
+        <v>11.750916999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>911.907000</v>
+        <v>911.90700000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>-182.864000</v>
+        <v>-182.864</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>42313.686130</v>
+        <v>42313.686130000002</v>
       </c>
       <c r="G3" s="1">
         <v>11.753802</v>
       </c>
       <c r="H3" s="1">
-        <v>926.612000</v>
+        <v>926.61199999999997</v>
       </c>
       <c r="I3" s="1">
-        <v>-155.621000</v>
+        <v>-155.62100000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>42324.168118</v>
+        <v>42324.168118000001</v>
       </c>
       <c r="L3" s="1">
         <v>11.756713</v>
       </c>
       <c r="M3" s="1">
-        <v>947.118000</v>
+        <v>947.11800000000005</v>
       </c>
       <c r="N3" s="1">
-        <v>-113.667000</v>
+        <v>-113.667</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>42335.031495</v>
+        <v>42335.031495000003</v>
       </c>
       <c r="Q3" s="1">
         <v>11.759731</v>
       </c>
       <c r="R3" s="1">
-        <v>953.660000</v>
+        <v>953.66</v>
       </c>
       <c r="S3" s="1">
-        <v>-100.090000</v>
+        <v>-100.09</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>42345.584868</v>
+        <v>42345.584867999998</v>
       </c>
       <c r="V3" s="1">
-        <v>11.762662</v>
+        <v>11.762662000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>960.318000</v>
+        <v>960.31799999999998</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.948700</v>
+        <v>-87.948700000000002</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>42355.992392</v>
       </c>
       <c r="AA3" s="1">
-        <v>11.765553</v>
+        <v>11.765553000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>968.225000</v>
+        <v>968.22500000000002</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.782800</v>
+        <v>-79.782799999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>42366.538858</v>
@@ -828,195 +1244,195 @@
         <v>11.768483</v>
       </c>
       <c r="AG3" s="1">
-        <v>973.566000</v>
+        <v>973.56600000000003</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.837500</v>
+        <v>-79.837500000000006</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>42376.993998</v>
+        <v>42376.993997999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>11.771387</v>
+        <v>11.771387000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>981.878000</v>
+        <v>981.87800000000004</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.044900</v>
+        <v>-88.044899999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>42387.911934</v>
+        <v>42387.911934000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>11.774420</v>
+        <v>11.774419999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>991.275000</v>
+        <v>991.27499999999998</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.233000</v>
+        <v>-103.233</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>42399.387375</v>
+        <v>42399.387374999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>11.777608</v>
+        <v>11.777608000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="AW3" s="1">
-        <v>-125.059000</v>
+        <v>-125.059</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>42410.512640</v>
+        <v>42410.512640000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>11.780698</v>
+        <v>11.780697999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1012.520000</v>
+        <v>1012.52</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.981000</v>
+        <v>-143.98099999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>42421.132978</v>
+        <v>42421.132978000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>11.783648</v>
+        <v>11.783647999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1057.930000</v>
+        <v>1057.93</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.700000</v>
+        <v>-229.7</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>42431.824278</v>
       </c>
       <c r="BJ3" s="1">
-        <v>11.786618</v>
+        <v>11.786618000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1137.490000</v>
+        <v>1137.49</v>
       </c>
       <c r="BL3" s="1">
-        <v>-367.704000</v>
+        <v>-367.70400000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>42442.993653</v>
+        <v>42442.993652999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>11.789720</v>
+        <v>11.789720000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1269.330000</v>
+        <v>1269.33</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-581.952000</v>
+        <v>-581.952</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>42453.767256</v>
+        <v>42453.767255999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>11.792713</v>
+        <v>11.792712999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1418.210000</v>
+        <v>1418.21</v>
       </c>
       <c r="BV3" s="1">
-        <v>-811.983000</v>
+        <v>-811.98299999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>42464.534409</v>
       </c>
       <c r="BY3" s="1">
-        <v>11.795704</v>
+        <v>11.795704000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1582.160000</v>
+        <v>1582.16</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1051.630000</v>
+        <v>-1051.6300000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>42475.513868</v>
+        <v>42475.513868000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>11.798754</v>
+        <v>11.798754000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1997.720000</v>
+        <v>1997.72</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1613.680000</v>
+        <v>-1613.68</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>42303.643661</v>
+        <v>42303.643661000002</v>
       </c>
       <c r="B4" s="1">
-        <v>11.751012</v>
+        <v>11.751011999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>911.960000</v>
+        <v>911.96</v>
       </c>
       <c r="D4" s="1">
-        <v>-182.779000</v>
+        <v>-182.779</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>42314.376559</v>
+        <v>42314.376558999997</v>
       </c>
       <c r="G4" s="1">
-        <v>11.753993</v>
+        <v>11.753992999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>926.498000</v>
+        <v>926.49800000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-155.972000</v>
+        <v>-155.97200000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>42324.859011</v>
@@ -1025,814 +1441,814 @@
         <v>11.756905</v>
       </c>
       <c r="M4" s="1">
-        <v>947.182000</v>
+        <v>947.18200000000002</v>
       </c>
       <c r="N4" s="1">
-        <v>-113.784000</v>
+        <v>-113.78400000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>42335.380147</v>
+        <v>42335.380147000003</v>
       </c>
       <c r="Q4" s="1">
-        <v>11.759828</v>
+        <v>11.759828000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>953.632000</v>
+        <v>953.63199999999995</v>
       </c>
       <c r="S4" s="1">
-        <v>-100.118000</v>
+        <v>-100.11799999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>42345.930551</v>
+        <v>42345.930550999998</v>
       </c>
       <c r="V4" s="1">
         <v>11.762758</v>
       </c>
       <c r="W4" s="1">
-        <v>960.337000</v>
+        <v>960.33699999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-87.899500</v>
+        <v>-87.899500000000003</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>42356.343065</v>
+        <v>42356.343065000001</v>
       </c>
       <c r="AA4" s="1">
         <v>11.765651</v>
       </c>
       <c r="AB4" s="1">
-        <v>968.162000</v>
+        <v>968.16200000000003</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.743500</v>
+        <v>-79.743499999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>42367.213918</v>
+        <v>42367.213918000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>11.768671</v>
+        <v>11.768670999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>973.536000</v>
+        <v>973.53599999999994</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.842400</v>
+        <v>-79.842399999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>42377.649212</v>
+        <v>42377.649211999997</v>
       </c>
       <c r="AK4" s="1">
         <v>11.771569</v>
       </c>
       <c r="AL4" s="1">
-        <v>981.874000</v>
+        <v>981.87400000000002</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.058200</v>
+        <v>-88.058199999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>42388.315182</v>
+        <v>42388.315181999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>11.774532</v>
+        <v>11.774532000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>991.277000</v>
+        <v>991.27700000000004</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.235000</v>
+        <v>-103.235</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>42399.779214</v>
+        <v>42399.779214000002</v>
       </c>
       <c r="AU4" s="1">
         <v>11.777716</v>
       </c>
       <c r="AV4" s="1">
-        <v>1002.800000</v>
+        <v>1002.8</v>
       </c>
       <c r="AW4" s="1">
-        <v>-125.026000</v>
+        <v>-125.026</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>42410.867776</v>
+        <v>42410.867775999999</v>
       </c>
       <c r="AZ4" s="1">
         <v>11.780797</v>
       </c>
       <c r="BA4" s="1">
-        <v>1012.510000</v>
+        <v>1012.51</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.966000</v>
+        <v>-143.96600000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>42421.496077</v>
+        <v>42421.496077000003</v>
       </c>
       <c r="BE4" s="1">
         <v>11.783749</v>
       </c>
       <c r="BF4" s="1">
-        <v>1057.920000</v>
+        <v>1057.92</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.730000</v>
+        <v>-229.73</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>42432.248821</v>
+        <v>42432.248821000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>11.786736</v>
+        <v>11.786735999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1137.490000</v>
+        <v>1137.49</v>
       </c>
       <c r="BL4" s="1">
-        <v>-367.753000</v>
+        <v>-367.75299999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>42443.809077</v>
+        <v>42443.809076999998</v>
       </c>
       <c r="BO4" s="1">
         <v>11.789947</v>
       </c>
       <c r="BP4" s="1">
-        <v>1269.370000</v>
+        <v>1269.3699999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-581.954000</v>
+        <v>-581.95399999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>42454.204727</v>
+        <v>42454.204726999997</v>
       </c>
       <c r="BT4" s="1">
         <v>11.792835</v>
       </c>
       <c r="BU4" s="1">
-        <v>1418.250000</v>
+        <v>1418.25</v>
       </c>
       <c r="BV4" s="1">
-        <v>-811.995000</v>
+        <v>-811.995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>42464.957000</v>
+        <v>42464.957000000002</v>
       </c>
       <c r="BY4" s="1">
         <v>11.795821</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1582.050000</v>
+        <v>1582.05</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1051.580000</v>
+        <v>-1051.58</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>42476.031687</v>
+        <v>42476.031687000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>11.798898</v>
+        <v>11.798897999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1999.160000</v>
+        <v>1999.16</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1613.220000</v>
+        <v>-1613.22</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>42304.325629</v>
+        <v>42304.325628999999</v>
       </c>
       <c r="B5" s="1">
-        <v>11.751202</v>
+        <v>11.751201999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>912.043000</v>
+        <v>912.04300000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-182.650000</v>
+        <v>-182.65</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>42314.725742</v>
+        <v>42314.725742000002</v>
       </c>
       <c r="G5" s="1">
-        <v>11.754090</v>
+        <v>11.75409</v>
       </c>
       <c r="H5" s="1">
-        <v>926.364000</v>
+        <v>926.36400000000003</v>
       </c>
       <c r="I5" s="1">
-        <v>-155.603000</v>
+        <v>-155.60300000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>42325.206211</v>
+        <v>42325.206210999997</v>
       </c>
       <c r="L5" s="1">
         <v>11.757002</v>
       </c>
       <c r="M5" s="1">
-        <v>947.075000</v>
+        <v>947.07500000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-113.557000</v>
+        <v>-113.557</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>42335.725862</v>
+        <v>42335.725861999999</v>
       </c>
       <c r="Q5" s="1">
         <v>11.759924</v>
       </c>
       <c r="R5" s="1">
-        <v>953.606000</v>
+        <v>953.60599999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-100.104000</v>
+        <v>-100.104</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>42346.597670</v>
+        <v>42346.597670000003</v>
       </c>
       <c r="V5" s="1">
-        <v>11.762944</v>
+        <v>11.762943999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>960.291000</v>
+        <v>960.29100000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-87.936500</v>
+        <v>-87.936499999999995</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>42357.005223</v>
       </c>
       <c r="AA5" s="1">
-        <v>11.765835</v>
+        <v>11.765834999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>968.157000</v>
+        <v>968.15700000000004</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.812500</v>
+        <v>-79.8125</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>42367.570505</v>
+        <v>42367.570505000003</v>
       </c>
       <c r="AF5" s="1">
-        <v>11.768770</v>
+        <v>11.76877</v>
       </c>
       <c r="AG5" s="1">
-        <v>973.548000</v>
+        <v>973.548</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.871000</v>
+        <v>-79.870999999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>42378.040068</v>
+        <v>42378.040068000002</v>
       </c>
       <c r="AK5" s="1">
         <v>11.771678</v>
       </c>
       <c r="AL5" s="1">
-        <v>981.873000</v>
+        <v>981.87300000000005</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.006300</v>
+        <v>-88.006299999999996</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>42388.704541</v>
+        <v>42388.704540999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>11.774640</v>
+        <v>11.77464</v>
       </c>
       <c r="AQ5" s="1">
-        <v>991.274000</v>
+        <v>991.274</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.256000</v>
+        <v>-103.256</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>42400.141326</v>
+        <v>42400.141325999997</v>
       </c>
       <c r="AU5" s="1">
-        <v>11.777817</v>
+        <v>11.777817000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1002.830000</v>
+        <v>1002.83</v>
       </c>
       <c r="AW5" s="1">
-        <v>-125.042000</v>
+        <v>-125.042</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>42411.305288</v>
+        <v>42411.305288000003</v>
       </c>
       <c r="AZ5" s="1">
         <v>11.780918</v>
       </c>
       <c r="BA5" s="1">
-        <v>1012.520000</v>
+        <v>1012.52</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.988000</v>
+        <v>-143.988</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>42421.928561</v>
+        <v>42421.928561000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>11.783869</v>
+        <v>11.783868999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1057.910000</v>
+        <v>1057.9100000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.720000</v>
+        <v>-229.72</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>42432.574692</v>
+        <v>42432.574692000002</v>
       </c>
       <c r="BJ5" s="1">
         <v>11.786826</v>
       </c>
       <c r="BK5" s="1">
-        <v>1137.490000</v>
+        <v>1137.49</v>
       </c>
       <c r="BL5" s="1">
-        <v>-367.739000</v>
+        <v>-367.73899999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>42444.225716</v>
+        <v>42444.225716000001</v>
       </c>
       <c r="BO5" s="1">
         <v>11.790063</v>
       </c>
       <c r="BP5" s="1">
-        <v>1269.340000</v>
+        <v>1269.3399999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-581.926000</v>
+        <v>-581.92600000000004</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>42454.631782</v>
+        <v>42454.631781999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>11.792953</v>
+        <v>11.792953000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1418.210000</v>
+        <v>1418.21</v>
       </c>
       <c r="BV5" s="1">
-        <v>-812.026000</v>
+        <v>-812.02599999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>42465.381576</v>
       </c>
       <c r="BY5" s="1">
-        <v>11.795939</v>
+        <v>11.795939000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1582.100000</v>
+        <v>1582.1</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1051.440000</v>
+        <v>-1051.44</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>42476.601112</v>
+        <v>42476.601111999997</v>
       </c>
       <c r="CD5" s="1">
         <v>11.799056</v>
       </c>
       <c r="CE5" s="1">
-        <v>1998.710000</v>
+        <v>1998.71</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1613.700000</v>
+        <v>-1613.7</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>42304.668891</v>
+        <v>42304.668891000001</v>
       </c>
       <c r="B6" s="1">
-        <v>11.751297</v>
+        <v>11.751296999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>911.957000</v>
+        <v>911.95699999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-182.849000</v>
+        <v>-182.84899999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>42315.071983</v>
+        <v>42315.071983000002</v>
       </c>
       <c r="G6" s="1">
         <v>11.754187</v>
       </c>
       <c r="H6" s="1">
-        <v>926.707000</v>
+        <v>926.70699999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-155.712000</v>
+        <v>-155.71199999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>42325.552416</v>
+        <v>42325.552415999999</v>
       </c>
       <c r="L6" s="1">
-        <v>11.757098</v>
+        <v>11.757097999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>947.197000</v>
+        <v>947.197</v>
       </c>
       <c r="N6" s="1">
-        <v>-113.665000</v>
+        <v>-113.66500000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>42336.389547</v>
+        <v>42336.389546999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>11.760108</v>
+        <v>11.760108000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>953.675000</v>
+        <v>953.67499999999995</v>
       </c>
       <c r="S6" s="1">
-        <v>-100.040000</v>
+        <v>-100.04</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>42346.961237</v>
+        <v>42346.961237000003</v>
       </c>
       <c r="V6" s="1">
         <v>11.763045</v>
       </c>
       <c r="W6" s="1">
-        <v>960.422000</v>
+        <v>960.42200000000003</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.026700</v>
+        <v>-88.026700000000005</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>42357.388136</v>
+        <v>42357.388136000001</v>
       </c>
       <c r="AA6" s="1">
         <v>11.765941</v>
       </c>
       <c r="AB6" s="1">
-        <v>968.194000</v>
+        <v>968.19399999999996</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.753600</v>
+        <v>-79.753600000000006</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>42367.920712</v>
+        <v>42367.920711999999</v>
       </c>
       <c r="AF6" s="1">
         <v>11.768867</v>
       </c>
       <c r="AG6" s="1">
-        <v>973.557000</v>
+        <v>973.55700000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.856800</v>
+        <v>-79.856800000000007</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>42378.388280</v>
+        <v>42378.388279999999</v>
       </c>
       <c r="AK6" s="1">
         <v>11.771775</v>
       </c>
       <c r="AL6" s="1">
-        <v>981.878000</v>
+        <v>981.87800000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.064000</v>
+        <v>-88.063999999999993</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>42389.084512</v>
+        <v>42389.084512000001</v>
       </c>
       <c r="AP6" s="1">
         <v>11.774746</v>
       </c>
       <c r="AQ6" s="1">
-        <v>991.280000</v>
+        <v>991.28</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.254000</v>
+        <v>-103.254</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>42400.575293</v>
+        <v>42400.575293000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>11.777938</v>
+        <v>11.777938000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1002.800000</v>
+        <v>1002.8</v>
       </c>
       <c r="AW6" s="1">
-        <v>-125.053000</v>
+        <v>-125.053</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>42411.585995</v>
+        <v>42411.585995000001</v>
       </c>
       <c r="AZ6" s="1">
         <v>11.780996</v>
       </c>
       <c r="BA6" s="1">
-        <v>1012.510000</v>
+        <v>1012.51</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.959000</v>
+        <v>-143.959</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>42422.217786</v>
+        <v>42422.217786000001</v>
       </c>
       <c r="BE6" s="1">
         <v>11.783949</v>
       </c>
       <c r="BF6" s="1">
-        <v>1057.920000</v>
+        <v>1057.92</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.742000</v>
+        <v>-229.74199999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>42432.958100</v>
+        <v>42432.958100000003</v>
       </c>
       <c r="BJ6" s="1">
-        <v>11.786933</v>
+        <v>11.786932999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1137.470000</v>
+        <v>1137.47</v>
       </c>
       <c r="BL6" s="1">
-        <v>-367.711000</v>
+        <v>-367.71100000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>42444.624005</v>
+        <v>42444.624004999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>11.790173</v>
+        <v>11.790172999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1269.340000</v>
+        <v>1269.3399999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-581.976000</v>
+        <v>-581.976</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>42455.043461</v>
+        <v>42455.043461000001</v>
       </c>
       <c r="BT6" s="1">
         <v>11.793068</v>
       </c>
       <c r="BU6" s="1">
-        <v>1418.160000</v>
+        <v>1418.16</v>
       </c>
       <c r="BV6" s="1">
-        <v>-812.037000</v>
+        <v>-812.03700000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>42465.846327</v>
+        <v>42465.846326999999</v>
       </c>
       <c r="BY6" s="1">
         <v>11.796068</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1582.160000</v>
+        <v>1582.16</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1051.640000</v>
+        <v>-1051.6400000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>42477.076745</v>
+        <v>42477.076744999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>11.799188</v>
+        <v>11.799187999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1999.340000</v>
+        <v>1999.34</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1612.540000</v>
+        <v>-1612.54</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>42305.009612</v>
+        <v>42305.009612000002</v>
       </c>
       <c r="B7" s="1">
-        <v>11.751392</v>
+        <v>11.751391999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>912.054000</v>
+        <v>912.05399999999997</v>
       </c>
       <c r="D7" s="1">
-        <v>-182.753000</v>
+        <v>-182.75299999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>42315.735146</v>
+        <v>42315.735145999999</v>
       </c>
       <c r="G7" s="1">
-        <v>11.754371</v>
+        <v>11.754371000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>926.763000</v>
+        <v>926.76300000000003</v>
       </c>
       <c r="I7" s="1">
-        <v>-155.877000</v>
+        <v>-155.87700000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>42326.218576</v>
+        <v>42326.218575999999</v>
       </c>
       <c r="L7" s="1">
-        <v>11.757283</v>
+        <v>11.757282999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>947.201000</v>
+        <v>947.20100000000002</v>
       </c>
       <c r="N7" s="1">
-        <v>-113.706000</v>
+        <v>-113.706</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>42336.773410</v>
+        <v>42336.773410000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>11.760215</v>
+        <v>11.760215000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>953.674000</v>
+        <v>953.67399999999998</v>
       </c>
       <c r="S7" s="1">
-        <v>-100.075000</v>
+        <v>-100.075</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>42347.305957</v>
+        <v>42347.305956999997</v>
       </c>
       <c r="V7" s="1">
-        <v>11.763141</v>
+        <v>11.763140999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>960.396000</v>
+        <v>960.39599999999996</v>
       </c>
       <c r="X7" s="1">
-        <v>-87.863600</v>
+        <v>-87.863600000000005</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>42357.737318</v>
@@ -1841,103 +2257,103 @@
         <v>11.766038</v>
       </c>
       <c r="AB7" s="1">
-        <v>968.222000</v>
+        <v>968.22199999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.712700</v>
+        <v>-79.712699999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>42368.264905</v>
+        <v>42368.264905000004</v>
       </c>
       <c r="AF7" s="1">
         <v>11.768962</v>
       </c>
       <c r="AG7" s="1">
-        <v>973.567000</v>
+        <v>973.56700000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.874500</v>
+        <v>-79.874499999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>42378.809852</v>
+        <v>42378.809851999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>11.771892</v>
+        <v>11.771891999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>981.857000</v>
+        <v>981.85699999999997</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.053800</v>
+        <v>-88.053799999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>42389.515996</v>
+        <v>42389.515996000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>11.774866</v>
+        <v>11.774865999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>991.262000</v>
+        <v>991.26199999999994</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.262000</v>
+        <v>-103.262</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>42400.872431</v>
+        <v>42400.872431000003</v>
       </c>
       <c r="AU7" s="1">
-        <v>11.778020</v>
+        <v>11.77802</v>
       </c>
       <c r="AV7" s="1">
-        <v>1002.830000</v>
+        <v>1002.83</v>
       </c>
       <c r="AW7" s="1">
-        <v>-125.035000</v>
+        <v>-125.035</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>42411.944132</v>
+        <v>42411.944131999997</v>
       </c>
       <c r="AZ7" s="1">
         <v>11.781096</v>
       </c>
       <c r="BA7" s="1">
-        <v>1012.520000</v>
+        <v>1012.52</v>
       </c>
       <c r="BB7" s="1">
-        <v>-144.010000</v>
+        <v>-144.01</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>42422.579344</v>
+        <v>42422.579343999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>11.784050</v>
+        <v>11.784050000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1057.950000</v>
+        <v>1057.95</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.719000</v>
+        <v>-229.71899999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>42433.346994</v>
@@ -1946,392 +2362,392 @@
         <v>11.787041</v>
       </c>
       <c r="BK7" s="1">
-        <v>1137.500000</v>
+        <v>1137.5</v>
       </c>
       <c r="BL7" s="1">
-        <v>-367.711000</v>
+        <v>-367.71100000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>42445.055027</v>
+        <v>42445.055027000002</v>
       </c>
       <c r="BO7" s="1">
         <v>11.790293</v>
       </c>
       <c r="BP7" s="1">
-        <v>1269.310000</v>
+        <v>1269.31</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-581.926000</v>
+        <v>-581.92600000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>42455.474485</v>
+        <v>42455.474484999999</v>
       </c>
       <c r="BT7" s="1">
         <v>11.793187</v>
       </c>
       <c r="BU7" s="1">
-        <v>1418.220000</v>
+        <v>1418.22</v>
       </c>
       <c r="BV7" s="1">
-        <v>-812.054000</v>
+        <v>-812.05399999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>42466.258008</v>
+        <v>42466.258007999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>11.796183</v>
+        <v>11.796182999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1582.020000</v>
+        <v>1582.02</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1051.580000</v>
+        <v>-1051.58</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>42477.593610</v>
+        <v>42477.593610000004</v>
       </c>
       <c r="CD7" s="1">
         <v>11.799332</v>
       </c>
       <c r="CE7" s="1">
-        <v>1997.500000</v>
+        <v>1997.5</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1611.940000</v>
+        <v>-1611.94</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>42305.665323</v>
+        <v>42305.665323000001</v>
       </c>
       <c r="B8" s="1">
         <v>11.751574</v>
       </c>
       <c r="C8" s="1">
-        <v>912.006000</v>
+        <v>912.00599999999997</v>
       </c>
       <c r="D8" s="1">
-        <v>-182.926000</v>
+        <v>-182.92599999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>42316.109581</v>
+        <v>42316.109580999997</v>
       </c>
       <c r="G8" s="1">
-        <v>11.754475</v>
+        <v>11.754474999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>926.858000</v>
+        <v>926.85799999999995</v>
       </c>
       <c r="I8" s="1">
-        <v>-155.423000</v>
+        <v>-155.423</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>42326.586081</v>
+        <v>42326.586081000001</v>
       </c>
       <c r="L8" s="1">
-        <v>11.757385</v>
+        <v>11.757384999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>947.264000</v>
+        <v>947.26400000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-113.785000</v>
+        <v>-113.785</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>42337.122098</v>
       </c>
       <c r="Q8" s="1">
-        <v>11.760312</v>
+        <v>11.760312000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>953.645000</v>
+        <v>953.64499999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-100.082000</v>
+        <v>-100.08199999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>42347.647701</v>
+        <v>42347.647701000002</v>
       </c>
       <c r="V8" s="1">
         <v>11.763235</v>
       </c>
       <c r="W8" s="1">
-        <v>960.399000</v>
+        <v>960.399</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.028200</v>
+        <v>-88.028199999999998</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>42358.086502</v>
+        <v>42358.086501999998</v>
       </c>
       <c r="AA8" s="1">
         <v>11.766135</v>
       </c>
       <c r="AB8" s="1">
-        <v>968.171000</v>
+        <v>968.17100000000005</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.707700</v>
+        <v>-79.707700000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>42368.702410</v>
+        <v>42368.702409999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>11.769084</v>
+        <v>11.769083999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>973.534000</v>
+        <v>973.53399999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.882400</v>
+        <v>-79.882400000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>42379.097034</v>
+        <v>42379.097033999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>11.771971</v>
+        <v>11.771971000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>981.862000</v>
+        <v>981.86199999999997</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.049800</v>
+        <v>-88.049800000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>42389.804941</v>
+        <v>42389.804941000002</v>
       </c>
       <c r="AP8" s="1">
         <v>11.774946</v>
       </c>
       <c r="AQ8" s="1">
-        <v>991.279000</v>
+        <v>991.279</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.240000</v>
+        <v>-103.24</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>42401.237453</v>
+        <v>42401.237453000002</v>
       </c>
       <c r="AU8" s="1">
         <v>11.778122</v>
       </c>
       <c r="AV8" s="1">
-        <v>1002.830000</v>
+        <v>1002.83</v>
       </c>
       <c r="AW8" s="1">
-        <v>-125.035000</v>
+        <v>-125.035</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>42412.303694</v>
+        <v>42412.303694000002</v>
       </c>
       <c r="AZ8" s="1">
         <v>11.781195</v>
       </c>
       <c r="BA8" s="1">
-        <v>1012.520000</v>
+        <v>1012.52</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.993000</v>
+        <v>-143.99299999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>42422.941423</v>
+        <v>42422.941422999997</v>
       </c>
       <c r="BE8" s="1">
-        <v>11.784150</v>
+        <v>11.78415</v>
       </c>
       <c r="BF8" s="1">
-        <v>1057.910000</v>
+        <v>1057.9100000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.724000</v>
+        <v>-229.72399999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>42434.099393</v>
+        <v>42434.099392999997</v>
       </c>
       <c r="BJ8" s="1">
-        <v>11.787250</v>
+        <v>11.78725</v>
       </c>
       <c r="BK8" s="1">
-        <v>1137.480000</v>
+        <v>1137.48</v>
       </c>
       <c r="BL8" s="1">
-        <v>-367.742000</v>
+        <v>-367.74200000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>42445.440914</v>
+        <v>42445.440913999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>11.790400</v>
+        <v>11.7904</v>
       </c>
       <c r="BP8" s="1">
-        <v>1269.360000</v>
+        <v>1269.3599999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-581.952000</v>
+        <v>-581.952</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>42455.902532</v>
       </c>
       <c r="BT8" s="1">
-        <v>11.793306</v>
+        <v>11.793305999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1418.220000</v>
+        <v>1418.22</v>
       </c>
       <c r="BV8" s="1">
-        <v>-812.078000</v>
+        <v>-812.07799999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>42466.679638</v>
+        <v>42466.679638000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>11.796300</v>
+        <v>11.7963</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1582.170000</v>
+        <v>1582.17</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1051.550000</v>
+        <v>-1051.55</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>42478.427848</v>
+        <v>42478.427847999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>11.799563</v>
+        <v>11.799562999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1997.710000</v>
+        <v>1997.71</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1613.880000</v>
+        <v>-1613.88</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>42306.034842</v>
+        <v>42306.034842000001</v>
       </c>
       <c r="B9" s="1">
         <v>11.751676</v>
       </c>
       <c r="C9" s="1">
-        <v>911.992000</v>
+        <v>911.99199999999996</v>
       </c>
       <c r="D9" s="1">
-        <v>-182.793000</v>
+        <v>-182.79300000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>42316.450370</v>
+        <v>42316.450369999999</v>
       </c>
       <c r="G9" s="1">
-        <v>11.754570</v>
+        <v>11.754569999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>926.724000</v>
+        <v>926.72400000000005</v>
       </c>
       <c r="I9" s="1">
-        <v>-155.294000</v>
+        <v>-155.29400000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>42326.933774</v>
+        <v>42326.933773999997</v>
       </c>
       <c r="L9" s="1">
         <v>11.757482</v>
       </c>
       <c r="M9" s="1">
-        <v>947.172000</v>
+        <v>947.17200000000003</v>
       </c>
       <c r="N9" s="1">
-        <v>-113.614000</v>
+        <v>-113.614</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>42337.470821</v>
+        <v>42337.470821000003</v>
       </c>
       <c r="Q9" s="1">
-        <v>11.760409</v>
+        <v>11.760408999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>953.657000</v>
+        <v>953.65700000000004</v>
       </c>
       <c r="S9" s="1">
-        <v>-100.094000</v>
+        <v>-100.09399999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>42348.063875</v>
@@ -2340,13 +2756,13 @@
         <v>11.763351</v>
       </c>
       <c r="W9" s="1">
-        <v>960.440000</v>
+        <v>960.44</v>
       </c>
       <c r="X9" s="1">
-        <v>-87.923000</v>
+        <v>-87.923000000000002</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>42358.524351</v>
@@ -2355,118 +2771,118 @@
         <v>11.766257</v>
       </c>
       <c r="AB9" s="1">
-        <v>968.238000</v>
+        <v>968.23800000000006</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.770400</v>
+        <v>-79.770399999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>42368.961783</v>
+        <v>42368.961782999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>11.769156</v>
+        <v>11.769156000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>973.581000</v>
+        <v>973.58100000000002</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.878500</v>
+        <v>-79.878500000000003</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>42379.445227</v>
+        <v>42379.445226999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>11.772068</v>
+        <v>11.772068000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>981.883000</v>
+        <v>981.88300000000004</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.069600</v>
+        <v>-88.069599999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>42390.164764</v>
+        <v>42390.164764000001</v>
       </c>
       <c r="AP9" s="1">
         <v>11.775046</v>
       </c>
       <c r="AQ9" s="1">
-        <v>991.291000</v>
+        <v>991.29100000000005</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.260000</v>
+        <v>-103.26</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>42401.600556</v>
+        <v>42401.600555999998</v>
       </c>
       <c r="AU9" s="1">
         <v>11.778222</v>
       </c>
       <c r="AV9" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="AW9" s="1">
-        <v>-125.056000</v>
+        <v>-125.056</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>42413.022397</v>
+        <v>42413.022397000001</v>
       </c>
       <c r="AZ9" s="1">
         <v>11.781395</v>
       </c>
       <c r="BA9" s="1">
-        <v>1012.510000</v>
+        <v>1012.51</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.988000</v>
+        <v>-143.988</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>42423.664063</v>
+        <v>42423.664062999997</v>
       </c>
       <c r="BE9" s="1">
-        <v>11.784351</v>
+        <v>11.784350999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1057.950000</v>
+        <v>1057.95</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.751000</v>
+        <v>-229.751</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>42434.499694</v>
+        <v>42434.499693999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>11.787361</v>
+        <v>11.787361000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1137.510000</v>
+        <v>1137.51</v>
       </c>
       <c r="BL9" s="1">
-        <v>-367.741000</v>
+        <v>-367.74099999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>42445.859074</v>
@@ -2475,43 +2891,43 @@
         <v>11.790516</v>
       </c>
       <c r="BP9" s="1">
-        <v>1269.380000</v>
+        <v>1269.3800000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-581.936000</v>
+        <v>-581.93600000000004</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>42456.316695</v>
+        <v>42456.316695000001</v>
       </c>
       <c r="BT9" s="1">
         <v>11.793421</v>
       </c>
       <c r="BU9" s="1">
-        <v>1418.240000</v>
+        <v>1418.24</v>
       </c>
       <c r="BV9" s="1">
-        <v>-812.021000</v>
+        <v>-812.02099999999996</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>42467.421125</v>
+        <v>42467.421125000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>11.796506</v>
+        <v>11.796506000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1582.090000</v>
+        <v>1582.09</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1051.600000</v>
+        <v>-1051.5999999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>42478.660999</v>
@@ -2520,60 +2936,60 @@
         <v>11.799628</v>
       </c>
       <c r="CE9" s="1">
-        <v>1999.300000</v>
+        <v>1999.3</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1612.740000</v>
+        <v>-1612.74</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>42306.382539</v>
+        <v>42306.382538999998</v>
       </c>
       <c r="B10" s="1">
         <v>11.751773</v>
       </c>
       <c r="C10" s="1">
-        <v>912.051000</v>
+        <v>912.05100000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>-182.901000</v>
+        <v>-182.90100000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>42316.795052</v>
+        <v>42316.795052000001</v>
       </c>
       <c r="G10" s="1">
-        <v>11.754665</v>
+        <v>11.754664999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>926.747000</v>
+        <v>926.74699999999996</v>
       </c>
       <c r="I10" s="1">
-        <v>-155.439000</v>
+        <v>-155.43899999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>42327.282959</v>
+        <v>42327.282958999996</v>
       </c>
       <c r="L10" s="1">
         <v>11.757579</v>
       </c>
       <c r="M10" s="1">
-        <v>947.182000</v>
+        <v>947.18200000000002</v>
       </c>
       <c r="N10" s="1">
-        <v>-113.764000</v>
+        <v>-113.764</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>42337.893376</v>
@@ -2582,435 +2998,435 @@
         <v>11.760526</v>
       </c>
       <c r="R10" s="1">
-        <v>953.646000</v>
+        <v>953.64599999999996</v>
       </c>
       <c r="S10" s="1">
-        <v>-100.086000</v>
+        <v>-100.086</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>42348.363924</v>
+        <v>42348.363923999997</v>
       </c>
       <c r="V10" s="1">
         <v>11.763434</v>
       </c>
       <c r="W10" s="1">
-        <v>960.444000</v>
+        <v>960.44399999999996</v>
       </c>
       <c r="X10" s="1">
-        <v>-87.921000</v>
+        <v>-87.921000000000006</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>42358.797766</v>
+        <v>42358.797766000003</v>
       </c>
       <c r="AA10" s="1">
-        <v>11.766333</v>
+        <v>11.766332999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>968.314000</v>
+        <v>968.31399999999996</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.812100</v>
+        <v>-79.812100000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>42369.305015</v>
+        <v>42369.305014999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>11.769251</v>
+        <v>11.769251000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>973.566000</v>
+        <v>973.56600000000003</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.865800</v>
+        <v>-79.865799999999993</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>42379.796393</v>
+        <v>42379.796392999997</v>
       </c>
       <c r="AK10" s="1">
         <v>11.772166</v>
       </c>
       <c r="AL10" s="1">
-        <v>981.867000</v>
+        <v>981.86699999999996</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.046600</v>
+        <v>-88.046599999999998</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>42390.522877</v>
+        <v>42390.522877000003</v>
       </c>
       <c r="AP10" s="1">
         <v>11.775145</v>
       </c>
       <c r="AQ10" s="1">
-        <v>991.281000</v>
+        <v>991.28099999999995</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.242000</v>
+        <v>-103.242</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>42402.330668</v>
+        <v>42402.330668000002</v>
       </c>
       <c r="AU10" s="1">
         <v>11.778425</v>
       </c>
       <c r="AV10" s="1">
-        <v>1002.800000</v>
+        <v>1002.8</v>
       </c>
       <c r="AW10" s="1">
-        <v>-125.059000</v>
+        <v>-125.059</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>42413.379022</v>
+        <v>42413.379022000001</v>
       </c>
       <c r="AZ10" s="1">
         <v>11.781494</v>
       </c>
       <c r="BA10" s="1">
-        <v>1012.500000</v>
+        <v>1012.5</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.982000</v>
+        <v>-143.982</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>42424.044998</v>
+        <v>42424.044997999998</v>
       </c>
       <c r="BE10" s="1">
         <v>11.784457</v>
       </c>
       <c r="BF10" s="1">
-        <v>1057.920000</v>
+        <v>1057.92</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.749000</v>
+        <v>-229.749</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>42434.875173</v>
       </c>
       <c r="BJ10" s="1">
-        <v>11.787465</v>
+        <v>11.787464999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1137.460000</v>
+        <v>1137.46</v>
       </c>
       <c r="BL10" s="1">
-        <v>-367.729000</v>
+        <v>-367.72899999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>42446.570306</v>
+        <v>42446.570306000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>11.790714</v>
+        <v>11.790713999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1269.350000</v>
+        <v>1269.3499999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-581.965000</v>
+        <v>-581.96500000000003</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>42457.067636</v>
       </c>
       <c r="BT10" s="1">
-        <v>11.793630</v>
+        <v>11.79363</v>
       </c>
       <c r="BU10" s="1">
-        <v>1418.200000</v>
+        <v>1418.2</v>
       </c>
       <c r="BV10" s="1">
-        <v>-811.979000</v>
+        <v>-811.97900000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>42467.569461</v>
+        <v>42467.569460999999</v>
       </c>
       <c r="BY10" s="1">
         <v>11.796547</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1582.090000</v>
+        <v>1582.09</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1051.690000</v>
+        <v>-1051.69</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>42479.195653</v>
+        <v>42479.195653000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>11.799777</v>
+        <v>11.799777000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1997.360000</v>
+        <v>1997.36</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1612.280000</v>
+        <v>-1612.28</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>42306.723321</v>
+        <v>42306.723320999998</v>
       </c>
       <c r="B11" s="1">
         <v>11.751868</v>
       </c>
       <c r="C11" s="1">
-        <v>911.944000</v>
+        <v>911.94399999999996</v>
       </c>
       <c r="D11" s="1">
-        <v>-182.765000</v>
+        <v>-182.76499999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>42317.230541</v>
+        <v>42317.230540999997</v>
       </c>
       <c r="G11" s="1">
-        <v>11.754786</v>
+        <v>11.754785999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>926.818000</v>
+        <v>926.81799999999998</v>
       </c>
       <c r="I11" s="1">
-        <v>-155.421000</v>
+        <v>-155.42099999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>42327.711007</v>
+        <v>42327.711006999998</v>
       </c>
       <c r="L11" s="1">
         <v>11.757698</v>
       </c>
       <c r="M11" s="1">
-        <v>947.208000</v>
+        <v>947.20799999999997</v>
       </c>
       <c r="N11" s="1">
-        <v>-113.773000</v>
+        <v>-113.773</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>42338.168657</v>
+        <v>42338.168657000002</v>
       </c>
       <c r="Q11" s="1">
         <v>11.760602</v>
       </c>
       <c r="R11" s="1">
-        <v>953.609000</v>
+        <v>953.60900000000004</v>
       </c>
       <c r="S11" s="1">
-        <v>-100.118000</v>
+        <v>-100.11799999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>42348.705203</v>
+        <v>42348.705202999998</v>
       </c>
       <c r="V11" s="1">
         <v>11.763529</v>
       </c>
       <c r="W11" s="1">
-        <v>960.441000</v>
+        <v>960.44100000000003</v>
       </c>
       <c r="X11" s="1">
-        <v>-87.913700</v>
+        <v>-87.913700000000006</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>42359.144004</v>
+        <v>42359.144004000002</v>
       </c>
       <c r="AA11" s="1">
         <v>11.766429</v>
       </c>
       <c r="AB11" s="1">
-        <v>968.240000</v>
+        <v>968.24</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.777200</v>
+        <v>-79.777199999999993</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>42369.647254</v>
+        <v>42369.647254000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>11.769346</v>
+        <v>11.769346000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>973.574000</v>
+        <v>973.57399999999996</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.865800</v>
+        <v>-79.865799999999993</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>42380.490793</v>
+        <v>42380.490792999997</v>
       </c>
       <c r="AK11" s="1">
         <v>11.772359</v>
       </c>
       <c r="AL11" s="1">
-        <v>981.863000</v>
+        <v>981.86300000000006</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.059800</v>
+        <v>-88.059799999999996</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>42391.243561</v>
+        <v>42391.243561000003</v>
       </c>
       <c r="AP11" s="1">
         <v>11.775345</v>
       </c>
       <c r="AQ11" s="1">
-        <v>991.272000</v>
+        <v>991.27200000000005</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.254000</v>
+        <v>-103.254</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>42402.723500</v>
+        <v>42402.7235</v>
       </c>
       <c r="AU11" s="1">
-        <v>11.778534</v>
+        <v>11.778534000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="AW11" s="1">
-        <v>-125.042000</v>
+        <v>-125.042</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>42413.738155</v>
+        <v>42413.738154999999</v>
       </c>
       <c r="AZ11" s="1">
         <v>11.781594</v>
       </c>
       <c r="BA11" s="1">
-        <v>1012.520000</v>
+        <v>1012.52</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.974000</v>
+        <v>-143.97399999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>42424.404591</v>
+        <v>42424.404590999999</v>
       </c>
       <c r="BE11" s="1">
         <v>11.784557</v>
       </c>
       <c r="BF11" s="1">
-        <v>1057.920000</v>
+        <v>1057.92</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.728000</v>
+        <v>-229.72800000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>42435.569577</v>
+        <v>42435.569577000002</v>
       </c>
       <c r="BJ11" s="1">
         <v>11.787658</v>
       </c>
       <c r="BK11" s="1">
-        <v>1137.490000</v>
+        <v>1137.49</v>
       </c>
       <c r="BL11" s="1">
-        <v>-367.720000</v>
+        <v>-367.72</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>42446.679962</v>
+        <v>42446.679962000002</v>
       </c>
       <c r="BO11" s="1">
         <v>11.790744</v>
       </c>
       <c r="BP11" s="1">
-        <v>1269.360000</v>
+        <v>1269.3599999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-581.942000</v>
+        <v>-581.94200000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>42457.180227</v>
+        <v>42457.180226999997</v>
       </c>
       <c r="BT11" s="1">
         <v>11.793661</v>
       </c>
       <c r="BU11" s="1">
-        <v>1418.200000</v>
+        <v>1418.2</v>
       </c>
       <c r="BV11" s="1">
-        <v>-812.033000</v>
+        <v>-812.03300000000002</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>42467.998517</v>
@@ -3019,60 +3435,60 @@
         <v>11.796666</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1582.080000</v>
+        <v>1582.08</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1051.770000</v>
+        <v>-1051.77</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>42479.734341</v>
+        <v>42479.734341000003</v>
       </c>
       <c r="CD11" s="1">
-        <v>11.799926</v>
+        <v>11.799925999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1998.830000</v>
+        <v>1998.83</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1614.310000</v>
+        <v>-1614.31</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>42307.158281</v>
+        <v>42307.158281000004</v>
       </c>
       <c r="B12" s="1">
-        <v>11.751988</v>
+        <v>11.751988000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>912.110000</v>
+        <v>912.11</v>
       </c>
       <c r="D12" s="1">
-        <v>-183.042000</v>
+        <v>-183.042</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>42317.505355</v>
+        <v>42317.505355000001</v>
       </c>
       <c r="G12" s="1">
         <v>11.754863</v>
       </c>
       <c r="H12" s="1">
-        <v>926.924000</v>
+        <v>926.92399999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>-155.757000</v>
+        <v>-155.75700000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>42327.992735</v>
@@ -3081,226 +3497,226 @@
         <v>11.757776</v>
       </c>
       <c r="M12" s="1">
-        <v>947.134000</v>
+        <v>947.13400000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-113.670000</v>
+        <v>-113.67</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>42338.518863</v>
+        <v>42338.518862999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>11.760700</v>
+        <v>11.7607</v>
       </c>
       <c r="R12" s="1">
-        <v>953.625000</v>
+        <v>953.625</v>
       </c>
       <c r="S12" s="1">
-        <v>-100.065000</v>
+        <v>-100.065</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>42349.050385</v>
+        <v>42349.050385000002</v>
       </c>
       <c r="V12" s="1">
-        <v>11.763625</v>
+        <v>11.763624999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>960.296000</v>
+        <v>960.29600000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-87.996600</v>
+        <v>-87.996600000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>42359.492661</v>
+        <v>42359.492660999997</v>
       </c>
       <c r="AA12" s="1">
-        <v>11.766526</v>
+        <v>11.766526000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>968.252000</v>
+        <v>968.25199999999995</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.795700</v>
+        <v>-79.795699999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>42370.334710</v>
+        <v>42370.334710000003</v>
       </c>
       <c r="AF12" s="1">
         <v>11.769537</v>
       </c>
       <c r="AG12" s="1">
-        <v>973.573000</v>
+        <v>973.57299999999998</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.856100</v>
+        <v>-79.856099999999998</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>42380.842953</v>
+        <v>42380.842952999999</v>
       </c>
       <c r="AK12" s="1">
         <v>11.772456</v>
       </c>
       <c r="AL12" s="1">
-        <v>981.860000</v>
+        <v>981.86</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.037100</v>
+        <v>-88.037099999999995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>42391.601673</v>
+        <v>42391.601672999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>11.775445</v>
+        <v>11.775444999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>991.283000</v>
+        <v>991.28300000000002</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.239000</v>
+        <v>-103.239</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>42403.087179</v>
+        <v>42403.087179000002</v>
       </c>
       <c r="AU12" s="1">
         <v>11.778635</v>
       </c>
       <c r="AV12" s="1">
-        <v>1002.820000</v>
+        <v>1002.82</v>
       </c>
       <c r="AW12" s="1">
-        <v>-125.029000</v>
+        <v>-125.029</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>42414.412683</v>
+        <v>42414.412683000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>11.781781</v>
+        <v>11.781781000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1012.500000</v>
+        <v>1012.5</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.978000</v>
+        <v>-143.97800000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>42425.085599</v>
+        <v>42425.085598999998</v>
       </c>
       <c r="BE12" s="1">
         <v>11.784746</v>
       </c>
       <c r="BF12" s="1">
-        <v>1057.940000</v>
+        <v>1057.94</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.734000</v>
+        <v>-229.73400000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>42436.031311</v>
+        <v>42436.031310999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>11.787786</v>
+        <v>11.787786000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1137.490000</v>
+        <v>1137.49</v>
       </c>
       <c r="BL12" s="1">
-        <v>-367.742000</v>
+        <v>-367.74200000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>42447.101024</v>
+        <v>42447.101024000003</v>
       </c>
       <c r="BO12" s="1">
         <v>11.790861</v>
       </c>
       <c r="BP12" s="1">
-        <v>1269.320000</v>
+        <v>1269.32</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-581.940000</v>
+        <v>-581.94000000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>42457.610294</v>
+        <v>42457.610293999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>11.793781</v>
+        <v>11.793780999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1418.260000</v>
+        <v>1418.26</v>
       </c>
       <c r="BV12" s="1">
-        <v>-812.049000</v>
+        <v>-812.04899999999998</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>42468.414613</v>
+        <v>42468.414613000001</v>
       </c>
       <c r="BY12" s="1">
         <v>11.796782</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1582.090000</v>
+        <v>1582.09</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1051.770000</v>
+        <v>-1051.77</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>42480.272505</v>
+        <v>42480.272505000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>11.800076</v>
+        <v>11.800076000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1998.090000</v>
+        <v>1998.09</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1611.800000</v>
+        <v>-1611.8</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>42307.422153</v>
       </c>
@@ -3308,133 +3724,133 @@
         <v>11.752062</v>
       </c>
       <c r="C13" s="1">
-        <v>912.183000</v>
+        <v>912.18299999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-182.553000</v>
+        <v>-182.553</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>42317.848555</v>
+        <v>42317.848554999997</v>
       </c>
       <c r="G13" s="1">
         <v>11.754958</v>
       </c>
       <c r="H13" s="1">
-        <v>926.452000</v>
+        <v>926.452</v>
       </c>
       <c r="I13" s="1">
-        <v>-155.365000</v>
+        <v>-155.36500000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>42328.334973</v>
+        <v>42328.334972999997</v>
       </c>
       <c r="L13" s="1">
         <v>11.757871</v>
       </c>
       <c r="M13" s="1">
-        <v>947.151000</v>
+        <v>947.15099999999995</v>
       </c>
       <c r="N13" s="1">
-        <v>-113.680000</v>
+        <v>-113.68</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>42338.867023</v>
+        <v>42338.867022999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>11.760796</v>
+        <v>11.760795999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>953.646000</v>
+        <v>953.64599999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>-100.089000</v>
+        <v>-100.089</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>42349.733874</v>
+        <v>42349.733873999998</v>
       </c>
       <c r="V13" s="1">
-        <v>11.763815</v>
+        <v>11.763814999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>960.395000</v>
+        <v>960.39499999999998</v>
       </c>
       <c r="X13" s="1">
-        <v>-87.952400</v>
+        <v>-87.952399999999997</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>42360.188066</v>
+        <v>42360.188066000002</v>
       </c>
       <c r="AA13" s="1">
         <v>11.766719</v>
       </c>
       <c r="AB13" s="1">
-        <v>968.208000</v>
+        <v>968.20799999999997</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.746400</v>
+        <v>-79.746399999999994</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>42370.677940</v>
+        <v>42370.677940000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>11.769633</v>
+        <v>11.769633000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>973.581000</v>
+        <v>973.58100000000002</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.870300</v>
+        <v>-79.8703</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>42381.190649</v>
+        <v>42381.190648999996</v>
       </c>
       <c r="AK13" s="1">
         <v>11.772553</v>
       </c>
       <c r="AL13" s="1">
-        <v>981.883000</v>
+        <v>981.88300000000004</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.062100</v>
+        <v>-88.062100000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>42391.962266</v>
+        <v>42391.962266000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>11.775545</v>
+        <v>11.775544999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>991.278000</v>
+        <v>991.27800000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.230000</v>
+        <v>-103.23</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>42403.758618</v>
@@ -3443,28 +3859,28 @@
         <v>11.778822</v>
       </c>
       <c r="AV13" s="1">
-        <v>1002.800000</v>
+        <v>1002.8</v>
       </c>
       <c r="AW13" s="1">
-        <v>-125.018000</v>
+        <v>-125.018</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>42414.848667</v>
+        <v>42414.848666999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>11.781902</v>
+        <v>11.781902000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1012.520000</v>
+        <v>1012.52</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.999000</v>
+        <v>-143.999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>42425.520094</v>
@@ -3473,270 +3889,270 @@
         <v>11.784867</v>
       </c>
       <c r="BF13" s="1">
-        <v>1057.930000</v>
+        <v>1057.93</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.724000</v>
+        <v>-229.72399999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>42436.421663</v>
+        <v>42436.421663000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>11.787895</v>
+        <v>11.787895000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1137.490000</v>
+        <v>1137.49</v>
       </c>
       <c r="BL13" s="1">
-        <v>-367.739000</v>
+        <v>-367.73899999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>42447.498851</v>
+        <v>42447.498850999997</v>
       </c>
       <c r="BO13" s="1">
         <v>11.790972</v>
       </c>
       <c r="BP13" s="1">
-        <v>1269.350000</v>
+        <v>1269.3499999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-581.962000</v>
+        <v>-581.96199999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>42458.022962</v>
+        <v>42458.022962000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>11.793895</v>
+        <v>11.793894999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1418.230000</v>
+        <v>1418.23</v>
       </c>
       <c r="BV13" s="1">
-        <v>-811.947000</v>
+        <v>-811.947</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>42468.863523</v>
       </c>
       <c r="BY13" s="1">
-        <v>11.796907</v>
+        <v>11.796906999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1582.190000</v>
+        <v>1582.19</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1051.750000</v>
+        <v>-1051.75</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>42480.821571</v>
       </c>
       <c r="CD13" s="1">
-        <v>11.800228</v>
+        <v>11.800228000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1997.660000</v>
+        <v>1997.66</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1613.540000</v>
+        <v>-1613.54</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>42307.765384</v>
+        <v>42307.765383999998</v>
       </c>
       <c r="B14" s="1">
         <v>11.752157</v>
       </c>
       <c r="C14" s="1">
-        <v>912.102000</v>
+        <v>912.10199999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>-182.787000</v>
+        <v>-182.78700000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>42318.194279</v>
+        <v>42318.194279000003</v>
       </c>
       <c r="G14" s="1">
-        <v>11.755054</v>
+        <v>11.755053999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>926.719000</v>
+        <v>926.71900000000005</v>
       </c>
       <c r="I14" s="1">
-        <v>-155.950000</v>
+        <v>-155.94999999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>42329.012508</v>
       </c>
       <c r="L14" s="1">
-        <v>11.758059</v>
+        <v>11.758058999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>947.226000</v>
+        <v>947.226</v>
       </c>
       <c r="N14" s="1">
-        <v>-113.633000</v>
+        <v>-113.633</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>42339.563406</v>
+        <v>42339.563406000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>11.760990</v>
+        <v>11.76099</v>
       </c>
       <c r="R14" s="1">
-        <v>953.686000</v>
+        <v>953.68600000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-100.135000</v>
+        <v>-100.13500000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>42350.079090</v>
+        <v>42350.079089999999</v>
       </c>
       <c r="V14" s="1">
         <v>11.763911</v>
       </c>
       <c r="W14" s="1">
-        <v>960.438000</v>
+        <v>960.43799999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-87.921400</v>
+        <v>-87.921400000000006</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>42360.539714</v>
+        <v>42360.539713999999</v>
       </c>
       <c r="AA14" s="1">
         <v>11.766817</v>
       </c>
       <c r="AB14" s="1">
-        <v>968.177000</v>
+        <v>968.17700000000002</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.644400</v>
+        <v>-79.644400000000005</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>42371.022164</v>
+        <v>42371.022164000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>11.769728</v>
+        <v>11.769728000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>973.574000</v>
+        <v>973.57399999999996</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.894600</v>
+        <v>-79.894599999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>42381.850358</v>
+        <v>42381.850358000003</v>
       </c>
       <c r="AK14" s="1">
         <v>11.772736</v>
       </c>
       <c r="AL14" s="1">
-        <v>981.886000</v>
+        <v>981.88599999999997</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.057700</v>
+        <v>-88.057699999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>42392.643768</v>
+        <v>42392.643768000002</v>
       </c>
       <c r="AP14" s="1">
         <v>11.775734</v>
       </c>
       <c r="AQ14" s="1">
-        <v>991.279000</v>
+        <v>991.279</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.236000</v>
+        <v>-103.236</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>42404.179226</v>
       </c>
       <c r="AU14" s="1">
-        <v>11.778939</v>
+        <v>11.778938999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1002.790000</v>
+        <v>1002.79</v>
       </c>
       <c r="AW14" s="1">
-        <v>-125.038000</v>
+        <v>-125.038</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>42415.204298</v>
+        <v>42415.204297999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>11.782001</v>
+        <v>11.782000999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1012.490000</v>
+        <v>1012.49</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.980000</v>
+        <v>-143.97999999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>42425.883660</v>
+        <v>42425.88366</v>
       </c>
       <c r="BE14" s="1">
-        <v>11.784968</v>
+        <v>11.784967999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1057.920000</v>
+        <v>1057.92</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.733000</v>
+        <v>-229.733</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>42436.794189</v>
@@ -3745,58 +4161,58 @@
         <v>11.787998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1137.490000</v>
+        <v>1137.49</v>
       </c>
       <c r="BL14" s="1">
-        <v>-367.748000</v>
+        <v>-367.74799999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>42447.924879</v>
+        <v>42447.924878999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>11.791090</v>
+        <v>11.791090000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1269.340000</v>
+        <v>1269.3399999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-581.955000</v>
+        <v>-581.95500000000004</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>42458.447009</v>
+        <v>42458.447009000003</v>
       </c>
       <c r="BT14" s="1">
         <v>11.794013</v>
       </c>
       <c r="BU14" s="1">
-        <v>1418.250000</v>
+        <v>1418.25</v>
       </c>
       <c r="BV14" s="1">
-        <v>-812.029000</v>
+        <v>-812.029</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>42469.283604</v>
+        <v>42469.283603999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>11.797023</v>
+        <v>11.797022999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1582.070000</v>
+        <v>1582.07</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1051.540000</v>
+        <v>-1051.54</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>42481.352754</v>
@@ -3805,497 +4221,497 @@
         <v>11.800376</v>
       </c>
       <c r="CE14" s="1">
-        <v>1999.520000</v>
+        <v>1999.52</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1613.140000</v>
+        <v>-1613.14</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>42308.105640</v>
+        <v>42308.105640000002</v>
       </c>
       <c r="B15" s="1">
         <v>11.752252</v>
       </c>
       <c r="C15" s="1">
-        <v>912.025000</v>
+        <v>912.02499999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>-182.918000</v>
+        <v>-182.91800000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>42318.881754</v>
+        <v>42318.881754000002</v>
       </c>
       <c r="G15" s="1">
         <v>11.755245</v>
       </c>
       <c r="H15" s="1">
-        <v>926.757000</v>
+        <v>926.75699999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-155.617000</v>
+        <v>-155.61699999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>42329.376585</v>
+        <v>42329.376584999998</v>
       </c>
       <c r="L15" s="1">
-        <v>11.758160</v>
+        <v>11.75816</v>
       </c>
       <c r="M15" s="1">
-        <v>947.064000</v>
+        <v>947.06399999999996</v>
       </c>
       <c r="N15" s="1">
-        <v>-113.597000</v>
+        <v>-113.59699999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>42339.913582</v>
+        <v>42339.913582000001</v>
       </c>
       <c r="Q15" s="1">
         <v>11.761087</v>
       </c>
       <c r="R15" s="1">
-        <v>953.660000</v>
+        <v>953.66</v>
       </c>
       <c r="S15" s="1">
-        <v>-100.146000</v>
+        <v>-100.146</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>42350.425295</v>
+        <v>42350.425295000001</v>
       </c>
       <c r="V15" s="1">
-        <v>11.764007</v>
+        <v>11.764006999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>960.478000</v>
+        <v>960.47799999999995</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.005600</v>
+        <v>-88.005600000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>42360.889896</v>
+        <v>42360.889896000001</v>
       </c>
       <c r="AA15" s="1">
         <v>11.766914</v>
       </c>
       <c r="AB15" s="1">
-        <v>968.181000</v>
+        <v>968.18100000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.776100</v>
+        <v>-79.7761</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>42371.679860</v>
+        <v>42371.679859999997</v>
       </c>
       <c r="AF15" s="1">
         <v>11.769911</v>
       </c>
       <c r="AG15" s="1">
-        <v>973.566000</v>
+        <v>973.56600000000003</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.910300</v>
+        <v>-79.910300000000007</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>42382.236710</v>
+        <v>42382.236709999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>11.772844</v>
+        <v>11.772843999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>981.857000</v>
+        <v>981.85699999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.052200</v>
+        <v>-88.052199999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>42393.079762</v>
+        <v>42393.079762000001</v>
       </c>
       <c r="AP15" s="1">
         <v>11.775855</v>
       </c>
       <c r="AQ15" s="1">
-        <v>991.285000</v>
+        <v>991.28499999999997</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.241000</v>
+        <v>-103.241</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>42404.545768</v>
+        <v>42404.545768000004</v>
       </c>
       <c r="AU15" s="1">
-        <v>11.779040</v>
+        <v>11.77904</v>
       </c>
       <c r="AV15" s="1">
-        <v>1002.790000</v>
+        <v>1002.79</v>
       </c>
       <c r="AW15" s="1">
-        <v>-125.051000</v>
+        <v>-125.051</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>42415.563434</v>
+        <v>42415.563434000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>11.782101</v>
+        <v>11.782101000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1012.500000</v>
+        <v>1012.5</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.986000</v>
+        <v>-143.98599999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>42426.243755</v>
+        <v>42426.243755000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>11.785068</v>
+        <v>11.785068000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1057.910000</v>
+        <v>1057.9100000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.713000</v>
+        <v>-229.71299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>42437.231630</v>
+        <v>42437.231630000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>11.788120</v>
+        <v>11.788119999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1137.470000</v>
+        <v>1137.47</v>
       </c>
       <c r="BL15" s="1">
-        <v>-367.694000</v>
+        <v>-367.69400000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>42448.318702</v>
+        <v>42448.318701999997</v>
       </c>
       <c r="BO15" s="1">
-        <v>11.791200</v>
+        <v>11.7912</v>
       </c>
       <c r="BP15" s="1">
-        <v>1269.350000</v>
+        <v>1269.3499999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-581.959000</v>
+        <v>-581.95899999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>42458.880512</v>
+        <v>42458.880512000003</v>
       </c>
       <c r="BT15" s="1">
         <v>11.794133</v>
       </c>
       <c r="BU15" s="1">
-        <v>1418.310000</v>
+        <v>1418.31</v>
       </c>
       <c r="BV15" s="1">
-        <v>-811.970000</v>
+        <v>-811.97</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>42469.706691</v>
+        <v>42469.706690999999</v>
       </c>
       <c r="BY15" s="1">
         <v>11.797141</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1582.170000</v>
+        <v>1582.17</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1051.690000</v>
+        <v>-1051.69</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>42481.895379</v>
+        <v>42481.895379000001</v>
       </c>
       <c r="CD15" s="1">
         <v>11.800526</v>
       </c>
       <c r="CE15" s="1">
-        <v>1997.130000</v>
+        <v>1997.13</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1612.790000</v>
+        <v>-1612.79</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>42308.787639</v>
+        <v>42308.787639000002</v>
       </c>
       <c r="B16" s="1">
-        <v>11.752441</v>
+        <v>11.752440999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>912.072000</v>
+        <v>912.072</v>
       </c>
       <c r="D16" s="1">
-        <v>-182.728000</v>
+        <v>-182.72800000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>42319.226943</v>
+        <v>42319.226943000001</v>
       </c>
       <c r="G16" s="1">
         <v>11.755341</v>
       </c>
       <c r="H16" s="1">
-        <v>926.688000</v>
+        <v>926.68799999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-156.059000</v>
+        <v>-156.059</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>42329.720331</v>
+        <v>42329.720330999997</v>
       </c>
       <c r="L16" s="1">
-        <v>11.758256</v>
+        <v>11.758255999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>947.185000</v>
+        <v>947.18499999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-113.713000</v>
+        <v>-113.71299999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>42340.262269</v>
+        <v>42340.262268999999</v>
       </c>
       <c r="Q16" s="1">
         <v>11.761184</v>
       </c>
       <c r="R16" s="1">
-        <v>953.629000</v>
+        <v>953.62900000000002</v>
       </c>
       <c r="S16" s="1">
-        <v>-100.133000</v>
+        <v>-100.133</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>42351.098899</v>
+        <v>42351.098898999997</v>
       </c>
       <c r="V16" s="1">
         <v>11.764194</v>
       </c>
       <c r="W16" s="1">
-        <v>960.438000</v>
+        <v>960.43799999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-87.936400</v>
+        <v>-87.936400000000006</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>42361.597185</v>
+        <v>42361.597184999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>11.767110</v>
+        <v>11.767110000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>968.193000</v>
+        <v>968.19299999999998</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.797700</v>
+        <v>-79.797700000000006</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>42372.050899</v>
+        <v>42372.050899000002</v>
       </c>
       <c r="AF16" s="1">
         <v>11.770014</v>
       </c>
       <c r="AG16" s="1">
-        <v>973.589000</v>
+        <v>973.58900000000006</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.840500</v>
+        <v>-79.840500000000006</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>42382.583943</v>
+        <v>42382.583942999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>11.772940</v>
+        <v>11.77294</v>
       </c>
       <c r="AL16" s="1">
-        <v>981.853000</v>
+        <v>981.85299999999995</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.039300</v>
+        <v>-88.039299999999997</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>42393.437368</v>
+        <v>42393.437367999999</v>
       </c>
       <c r="AP16" s="1">
         <v>11.775955</v>
       </c>
       <c r="AQ16" s="1">
-        <v>991.274000</v>
+        <v>991.274</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.250000</v>
+        <v>-103.25</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>42404.910824</v>
+        <v>42404.910823999999</v>
       </c>
       <c r="AU16" s="1">
         <v>11.779142</v>
       </c>
       <c r="AV16" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="AW16" s="1">
-        <v>-125.044000</v>
+        <v>-125.044</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>42415.992443</v>
+        <v>42415.992443000003</v>
       </c>
       <c r="AZ16" s="1">
-        <v>11.782220</v>
+        <v>11.782220000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1012.500000</v>
+        <v>1012.5</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.983000</v>
+        <v>-143.983</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>42426.718936</v>
+        <v>42426.718935999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>11.785200</v>
+        <v>11.7852</v>
       </c>
       <c r="BF16" s="1">
-        <v>1057.940000</v>
+        <v>1057.94</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.726000</v>
+        <v>-229.726</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>42437.546589</v>
+        <v>42437.546588999998</v>
       </c>
       <c r="BJ16" s="1">
         <v>11.788207</v>
       </c>
       <c r="BK16" s="1">
-        <v>1137.450000</v>
+        <v>1137.45</v>
       </c>
       <c r="BL16" s="1">
-        <v>-367.758000</v>
+        <v>-367.75799999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>42448.740303</v>
+        <v>42448.740302999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>11.791317</v>
+        <v>11.791316999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1269.370000</v>
+        <v>1269.3699999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-581.983000</v>
+        <v>-581.98299999999995</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>42459.295664</v>
+        <v>42459.295663999997</v>
       </c>
       <c r="BT16" s="1">
-        <v>11.794249</v>
+        <v>11.794249000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1418.210000</v>
+        <v>1418.21</v>
       </c>
       <c r="BV16" s="1">
-        <v>-812.013000</v>
+        <v>-812.01300000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>42470.156593</v>
@@ -4304,105 +4720,105 @@
         <v>11.797266</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1582.110000</v>
+        <v>1582.11</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1051.750000</v>
+        <v>-1051.75</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>42482.435521</v>
+        <v>42482.435520999999</v>
       </c>
       <c r="CD16" s="1">
         <v>11.800677</v>
       </c>
       <c r="CE16" s="1">
-        <v>1999.070000</v>
+        <v>1999.07</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1613.930000</v>
+        <v>-1613.93</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>42309.130902</v>
+        <v>42309.130901999997</v>
       </c>
       <c r="B17" s="1">
-        <v>11.752536</v>
+        <v>11.752535999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>911.973000</v>
+        <v>911.97299999999996</v>
       </c>
       <c r="D17" s="1">
-        <v>-182.822000</v>
+        <v>-182.822</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>42319.574137</v>
+        <v>42319.574137000003</v>
       </c>
       <c r="G17" s="1">
-        <v>11.755437</v>
+        <v>11.755437000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>927.266000</v>
+        <v>927.26599999999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-155.691000</v>
+        <v>-155.691</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>42330.394363</v>
+        <v>42330.394362999999</v>
       </c>
       <c r="L17" s="1">
         <v>11.758443</v>
       </c>
       <c r="M17" s="1">
-        <v>947.235000</v>
+        <v>947.23500000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-113.693000</v>
+        <v>-113.693</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>42340.921453</v>
+        <v>42340.921453000003</v>
       </c>
       <c r="Q17" s="1">
         <v>11.761367</v>
       </c>
       <c r="R17" s="1">
-        <v>953.641000</v>
+        <v>953.64099999999996</v>
       </c>
       <c r="S17" s="1">
-        <v>-100.121000</v>
+        <v>-100.121</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>42351.460942</v>
+        <v>42351.460941999998</v>
       </c>
       <c r="V17" s="1">
-        <v>11.764295</v>
+        <v>11.764295000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>960.418000</v>
+        <v>960.41800000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-87.889300</v>
+        <v>-87.889300000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>42361.930535</v>
@@ -4411,73 +4827,73 @@
         <v>11.767203</v>
       </c>
       <c r="AB17" s="1">
-        <v>968.211000</v>
+        <v>968.21100000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.773000</v>
+        <v>-79.772999999999996</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>42372.396082</v>
+        <v>42372.396081999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>11.770110</v>
+        <v>11.770110000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>973.581000</v>
+        <v>973.58100000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.904300</v>
+        <v>-79.904300000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>42382.932632</v>
+        <v>42382.932631999996</v>
       </c>
       <c r="AK17" s="1">
         <v>11.773037</v>
       </c>
       <c r="AL17" s="1">
-        <v>981.875000</v>
+        <v>981.875</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.039400</v>
+        <v>-88.039400000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>42393.856487</v>
+        <v>42393.856486999997</v>
       </c>
       <c r="AP17" s="1">
         <v>11.776071</v>
       </c>
       <c r="AQ17" s="1">
-        <v>991.297000</v>
+        <v>991.29700000000003</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.232000</v>
+        <v>-103.232</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>42405.330439</v>
+        <v>42405.330438999998</v>
       </c>
       <c r="AU17" s="1">
         <v>11.779258</v>
       </c>
       <c r="AV17" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="AW17" s="1">
-        <v>-125.049000</v>
+        <v>-125.04900000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>42416.283098</v>
@@ -4486,814 +4902,814 @@
         <v>11.782301</v>
       </c>
       <c r="BA17" s="1">
-        <v>1012.490000</v>
+        <v>1012.49</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.992000</v>
+        <v>-143.99199999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>42426.965435</v>
+        <v>42426.965434999998</v>
       </c>
       <c r="BE17" s="1">
         <v>11.785268</v>
       </c>
       <c r="BF17" s="1">
-        <v>1057.950000</v>
+        <v>1057.95</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.730000</v>
+        <v>-229.73</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>42437.929540</v>
+        <v>42437.929539999997</v>
       </c>
       <c r="BJ17" s="1">
         <v>11.788314</v>
       </c>
       <c r="BK17" s="1">
-        <v>1137.470000</v>
+        <v>1137.47</v>
       </c>
       <c r="BL17" s="1">
-        <v>-367.749000</v>
+        <v>-367.74900000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>42449.137630</v>
+        <v>42449.137629999997</v>
       </c>
       <c r="BO17" s="1">
-        <v>11.791427</v>
+        <v>11.791427000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1269.360000</v>
+        <v>1269.3599999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-581.981000</v>
+        <v>-581.98099999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>42459.862591</v>
+        <v>42459.862590999997</v>
       </c>
       <c r="BT17" s="1">
         <v>11.794406</v>
       </c>
       <c r="BU17" s="1">
-        <v>1418.240000</v>
+        <v>1418.24</v>
       </c>
       <c r="BV17" s="1">
-        <v>-812.034000</v>
+        <v>-812.03399999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>42470.585104</v>
+        <v>42470.585103999998</v>
       </c>
       <c r="BY17" s="1">
         <v>11.797385</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1582.100000</v>
+        <v>1582.1</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1051.660000</v>
+        <v>-1051.6600000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>42482.976162</v>
+        <v>42482.976161999999</v>
       </c>
       <c r="CD17" s="1">
         <v>11.800827</v>
       </c>
       <c r="CE17" s="1">
-        <v>1998.360000</v>
+        <v>1998.36</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1612.070000</v>
+        <v>-1612.07</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>42309.473110</v>
+        <v>42309.473109999999</v>
       </c>
       <c r="B18" s="1">
-        <v>11.752631</v>
+        <v>11.752630999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>912.098000</v>
+        <v>912.09799999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-182.781000</v>
+        <v>-182.78100000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>42320.240265</v>
       </c>
       <c r="G18" s="1">
-        <v>11.755622</v>
+        <v>11.755622000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>926.490000</v>
+        <v>926.49</v>
       </c>
       <c r="I18" s="1">
-        <v>-155.735000</v>
+        <v>-155.73500000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>42330.757468</v>
+        <v>42330.757468000003</v>
       </c>
       <c r="L18" s="1">
-        <v>11.758544</v>
+        <v>11.758544000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>947.072000</v>
+        <v>947.072</v>
       </c>
       <c r="N18" s="1">
-        <v>-113.546000</v>
+        <v>-113.54600000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>42341.304395</v>
+        <v>42341.304394999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>11.761473</v>
+        <v>11.761473000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>953.659000</v>
+        <v>953.65899999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-100.069000</v>
+        <v>-100.069</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>42351.805702</v>
+        <v>42351.805701999998</v>
       </c>
       <c r="V18" s="1">
-        <v>11.764390</v>
+        <v>11.764390000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>960.428000</v>
+        <v>960.428</v>
       </c>
       <c r="X18" s="1">
-        <v>-87.983600</v>
+        <v>-87.983599999999996</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>42362.283152</v>
+        <v>42362.283152000004</v>
       </c>
       <c r="AA18" s="1">
         <v>11.767301</v>
       </c>
       <c r="AB18" s="1">
-        <v>968.257000</v>
+        <v>968.25699999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.724400</v>
+        <v>-79.724400000000003</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>42372.747746</v>
+        <v>42372.747746000001</v>
       </c>
       <c r="AF18" s="1">
         <v>11.770208</v>
       </c>
       <c r="AG18" s="1">
-        <v>973.577000</v>
+        <v>973.577</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.861300</v>
+        <v>-79.8613</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>42383.361140</v>
+        <v>42383.361140000001</v>
       </c>
       <c r="AK18" s="1">
         <v>11.773156</v>
       </c>
       <c r="AL18" s="1">
-        <v>981.874000</v>
+        <v>981.87400000000002</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.056000</v>
+        <v>-88.055999999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>42394.514677</v>
+        <v>42394.514676999999</v>
       </c>
       <c r="AP18" s="1">
         <v>11.776254</v>
       </c>
       <c r="AQ18" s="1">
-        <v>991.278000</v>
+        <v>991.27800000000002</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.249000</v>
+        <v>-103.249</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>42405.637463</v>
+        <v>42405.637462999999</v>
       </c>
       <c r="AU18" s="1">
         <v>11.779344</v>
       </c>
       <c r="AV18" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="AW18" s="1">
-        <v>-125.041000</v>
+        <v>-125.041</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>42416.642201</v>
+        <v>42416.642201000002</v>
       </c>
       <c r="AZ18" s="1">
         <v>11.782401</v>
       </c>
       <c r="BA18" s="1">
-        <v>1012.510000</v>
+        <v>1012.51</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.989000</v>
+        <v>-143.989</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>42427.330522</v>
+        <v>42427.330521999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>11.785370</v>
+        <v>11.78537</v>
       </c>
       <c r="BF18" s="1">
-        <v>1057.970000</v>
+        <v>1057.97</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.742000</v>
+        <v>-229.74199999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>42438.320347</v>
+        <v>42438.320347000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>11.788422</v>
+        <v>11.788422000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1137.470000</v>
+        <v>1137.47</v>
       </c>
       <c r="BL18" s="1">
-        <v>-367.741000</v>
+        <v>-367.74099999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>42449.562706</v>
+        <v>42449.562705999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>11.791545</v>
+        <v>11.791544999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1269.320000</v>
+        <v>1269.32</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-581.967000</v>
+        <v>-581.96699999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>42460.155267</v>
+        <v>42460.155267000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>11.794488</v>
+        <v>11.794487999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1418.310000</v>
+        <v>1418.31</v>
       </c>
       <c r="BV18" s="1">
-        <v>-812.042000</v>
+        <v>-812.04200000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>42471.006704</v>
+        <v>42471.006703999999</v>
       </c>
       <c r="BY18" s="1">
         <v>11.797502</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1582.000000</v>
+        <v>1582</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1051.670000</v>
+        <v>-1051.67</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>42483.515840</v>
+        <v>42483.51584</v>
       </c>
       <c r="CD18" s="1">
         <v>11.800977</v>
       </c>
       <c r="CE18" s="1">
-        <v>1997.670000</v>
+        <v>1997.67</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1613.510000</v>
+        <v>-1613.51</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>42310.128821</v>
+        <v>42310.128820999998</v>
       </c>
       <c r="B19" s="1">
-        <v>11.752814</v>
+        <v>11.752814000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>911.921000</v>
+        <v>911.92100000000005</v>
       </c>
       <c r="D19" s="1">
-        <v>-182.841000</v>
+        <v>-182.84100000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>42320.606311</v>
+        <v>42320.606311000003</v>
       </c>
       <c r="G19" s="1">
-        <v>11.755724</v>
+        <v>11.755724000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>926.724000</v>
+        <v>926.72400000000005</v>
       </c>
       <c r="I19" s="1">
-        <v>-155.706000</v>
+        <v>-155.70599999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>42331.103641</v>
+        <v>42331.103641000002</v>
       </c>
       <c r="L19" s="1">
-        <v>11.758640</v>
+        <v>11.75864</v>
       </c>
       <c r="M19" s="1">
-        <v>947.197000</v>
+        <v>947.197</v>
       </c>
       <c r="N19" s="1">
-        <v>-113.774000</v>
+        <v>-113.774</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>42341.655035</v>
+        <v>42341.655035000003</v>
       </c>
       <c r="Q19" s="1">
         <v>11.761571</v>
       </c>
       <c r="R19" s="1">
-        <v>953.628000</v>
+        <v>953.62800000000004</v>
       </c>
       <c r="S19" s="1">
-        <v>-100.141000</v>
+        <v>-100.14100000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>42352.148431</v>
+        <v>42352.148431000001</v>
       </c>
       <c r="V19" s="1">
         <v>11.764486</v>
       </c>
       <c r="W19" s="1">
-        <v>960.427000</v>
+        <v>960.42700000000002</v>
       </c>
       <c r="X19" s="1">
-        <v>-87.931700</v>
+        <v>-87.931700000000006</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>42362.704784</v>
+        <v>42362.704784000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>11.767418</v>
+        <v>11.767417999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>968.160000</v>
+        <v>968.16</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.798300</v>
+        <v>-79.798299999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>42373.175794</v>
+        <v>42373.175794000002</v>
       </c>
       <c r="AF19" s="1">
         <v>11.770327</v>
       </c>
       <c r="AG19" s="1">
-        <v>973.582000</v>
+        <v>973.58199999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.849800</v>
+        <v>-79.849800000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>42383.642405</v>
+        <v>42383.642404999999</v>
       </c>
       <c r="AK19" s="1">
         <v>11.773234</v>
       </c>
       <c r="AL19" s="1">
-        <v>981.881000</v>
+        <v>981.88099999999997</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.039400</v>
+        <v>-88.039400000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>42394.904533</v>
+        <v>42394.904533000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>11.776362</v>
+        <v>11.776362000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>991.283000</v>
+        <v>991.28300000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.263000</v>
+        <v>-103.26300000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>42406.003538</v>
+        <v>42406.003537999997</v>
       </c>
       <c r="AU19" s="1">
-        <v>11.779445</v>
+        <v>11.779445000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="AW19" s="1">
-        <v>-125.042000</v>
+        <v>-125.042</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>42417.001305</v>
+        <v>42417.001304999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>11.782500</v>
+        <v>11.782500000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1012.510000</v>
+        <v>1012.51</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.994000</v>
+        <v>-143.994</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>42428.050683</v>
+        <v>42428.050683000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>11.785570</v>
+        <v>11.78557</v>
       </c>
       <c r="BF19" s="1">
-        <v>1057.930000</v>
+        <v>1057.93</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.736000</v>
+        <v>-229.73599999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>42439.068842</v>
+        <v>42439.068842000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>11.788630</v>
+        <v>11.788629999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1137.470000</v>
+        <v>1137.47</v>
       </c>
       <c r="BL19" s="1">
-        <v>-367.749000</v>
+        <v>-367.74900000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>42449.953053</v>
+        <v>42449.953052999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>11.791654</v>
+        <v>11.791653999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1269.340000</v>
+        <v>1269.3399999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-581.977000</v>
+        <v>-581.97699999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>42460.566910</v>
+        <v>42460.566910000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>11.794602</v>
+        <v>11.794601999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1418.220000</v>
+        <v>1418.22</v>
       </c>
       <c r="BV19" s="1">
-        <v>-811.994000</v>
+        <v>-811.99400000000003</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>42471.426320</v>
+        <v>42471.426319999999</v>
       </c>
       <c r="BY19" s="1">
         <v>11.797618</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1582.070000</v>
+        <v>1582.07</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1051.700000</v>
+        <v>-1051.7</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>42484.373391</v>
+        <v>42484.373391000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>11.801215</v>
+        <v>11.801214999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1998.070000</v>
+        <v>1998.07</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1612.270000</v>
+        <v>-1612.27</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>42310.496395</v>
+        <v>42310.496395000002</v>
       </c>
       <c r="B20" s="1">
-        <v>11.752916</v>
+        <v>11.752916000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>911.962000</v>
+        <v>911.96199999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-182.932000</v>
+        <v>-182.93199999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>42320.951031</v>
+        <v>42320.951030999997</v>
       </c>
       <c r="G20" s="1">
-        <v>11.755820</v>
+        <v>11.75582</v>
       </c>
       <c r="H20" s="1">
-        <v>926.866000</v>
+        <v>926.86599999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-155.855000</v>
+        <v>-155.85499999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>42331.451336</v>
+        <v>42331.451335999998</v>
       </c>
       <c r="L20" s="1">
-        <v>11.758736</v>
+        <v>11.758736000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>947.135000</v>
+        <v>947.13499999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-113.707000</v>
+        <v>-113.70699999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>42342.005212</v>
+        <v>42342.005211999996</v>
       </c>
       <c r="Q20" s="1">
         <v>11.761668</v>
       </c>
       <c r="R20" s="1">
-        <v>953.620000</v>
+        <v>953.62</v>
       </c>
       <c r="S20" s="1">
-        <v>-100.112000</v>
+        <v>-100.11199999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>42352.569006</v>
+        <v>42352.569005999998</v>
       </c>
       <c r="V20" s="1">
-        <v>11.764603</v>
+        <v>11.764602999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>960.428000</v>
+        <v>960.428</v>
       </c>
       <c r="X20" s="1">
-        <v>-87.888300</v>
+        <v>-87.888300000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>42362.977551</v>
+        <v>42362.977551000004</v>
       </c>
       <c r="AA20" s="1">
-        <v>11.767494</v>
+        <v>11.767493999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>968.252000</v>
+        <v>968.25199999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.837200</v>
+        <v>-79.837199999999996</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>42373.446115</v>
+        <v>42373.446114999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>11.770402</v>
+        <v>11.770402000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>973.558000</v>
+        <v>973.55799999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.853200</v>
+        <v>-79.853200000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>42383.990563</v>
+        <v>42383.990562999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>11.773331</v>
+        <v>11.773331000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>981.883000</v>
+        <v>981.88300000000004</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.067100</v>
+        <v>-88.067099999999996</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>42395.281028</v>
+        <v>42395.281027999998</v>
       </c>
       <c r="AP20" s="1">
         <v>11.776467</v>
       </c>
       <c r="AQ20" s="1">
-        <v>991.288000</v>
+        <v>991.28800000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.259000</v>
+        <v>-103.259</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>42406.367079</v>
+        <v>42406.367079000003</v>
       </c>
       <c r="AU20" s="1">
         <v>11.779546</v>
       </c>
       <c r="AV20" s="1">
-        <v>1002.800000</v>
+        <v>1002.8</v>
       </c>
       <c r="AW20" s="1">
-        <v>-125.046000</v>
+        <v>-125.04600000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>42417.717563</v>
+        <v>42417.717562999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>11.782699</v>
+        <v>11.782698999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1012.500000</v>
+        <v>1012.5</v>
       </c>
       <c r="BB20" s="1">
-        <v>-144.000000</v>
+        <v>-144</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>42428.410313</v>
       </c>
       <c r="BE20" s="1">
-        <v>11.785670</v>
+        <v>11.78567</v>
       </c>
       <c r="BF20" s="1">
-        <v>1057.920000</v>
+        <v>1057.92</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.732000</v>
+        <v>-229.732</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>42439.474571</v>
+        <v>42439.474570999999</v>
       </c>
       <c r="BJ20" s="1">
         <v>11.788743</v>
       </c>
       <c r="BK20" s="1">
-        <v>1137.470000</v>
+        <v>1137.47</v>
       </c>
       <c r="BL20" s="1">
-        <v>-367.723000</v>
+        <v>-367.72300000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>42450.379085</v>
@@ -5302,28 +5718,28 @@
         <v>11.791772</v>
       </c>
       <c r="BP20" s="1">
-        <v>1269.330000</v>
+        <v>1269.33</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-581.964000</v>
+        <v>-581.96400000000006</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>42461.313389</v>
+        <v>42461.313389000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>11.794809</v>
+        <v>11.794809000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1418.190000</v>
+        <v>1418.19</v>
       </c>
       <c r="BV20" s="1">
-        <v>-811.961000</v>
+        <v>-811.96100000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>42472.159903</v>
@@ -5332,75 +5748,75 @@
         <v>11.797822</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1582.170000</v>
+        <v>1582.17</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1051.630000</v>
+        <v>-1051.6300000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>42484.593118</v>
+        <v>42484.593117999997</v>
       </c>
       <c r="CD20" s="1">
         <v>11.801276</v>
       </c>
       <c r="CE20" s="1">
-        <v>1997.980000</v>
+        <v>1997.98</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1612.150000</v>
+        <v>-1612.15</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>42310.836656</v>
+        <v>42310.836655999999</v>
       </c>
       <c r="B21" s="1">
-        <v>11.753010</v>
+        <v>11.75301</v>
       </c>
       <c r="C21" s="1">
-        <v>912.002000</v>
+        <v>912.00199999999995</v>
       </c>
       <c r="D21" s="1">
-        <v>-182.810000</v>
+        <v>-182.81</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>42321.296743</v>
+        <v>42321.296742999999</v>
       </c>
       <c r="G21" s="1">
-        <v>11.755916</v>
+        <v>11.755915999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>926.911000</v>
+        <v>926.91099999999994</v>
       </c>
       <c r="I21" s="1">
-        <v>-155.805000</v>
+        <v>-155.80500000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>42331.881866</v>
+        <v>42331.881866000003</v>
       </c>
       <c r="L21" s="1">
         <v>11.758856</v>
       </c>
       <c r="M21" s="1">
-        <v>947.059000</v>
+        <v>947.05899999999997</v>
       </c>
       <c r="N21" s="1">
-        <v>-113.825000</v>
+        <v>-113.825</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>42342.432298</v>
@@ -5409,375 +5825,375 @@
         <v>11.761787</v>
       </c>
       <c r="R21" s="1">
-        <v>953.647000</v>
+        <v>953.64700000000005</v>
       </c>
       <c r="S21" s="1">
-        <v>-100.137000</v>
+        <v>-100.137</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>42352.849740</v>
+        <v>42352.849739999998</v>
       </c>
       <c r="V21" s="1">
-        <v>11.764680</v>
+        <v>11.76468</v>
       </c>
       <c r="W21" s="1">
-        <v>960.285000</v>
+        <v>960.28499999999997</v>
       </c>
       <c r="X21" s="1">
-        <v>-87.900400</v>
+        <v>-87.900400000000005</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>42363.327265</v>
       </c>
       <c r="AA21" s="1">
-        <v>11.767591</v>
+        <v>11.767590999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>968.235000</v>
+        <v>968.23500000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.759200</v>
+        <v>-79.759200000000007</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>42373.795297</v>
+        <v>42373.795296999997</v>
       </c>
       <c r="AF21" s="1">
-        <v>11.770499</v>
+        <v>11.770498999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>973.577000</v>
+        <v>973.577</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.877600</v>
+        <v>-79.877600000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>42384.340739</v>
+        <v>42384.340738999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>11.773428</v>
+        <v>11.773427999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>981.857000</v>
+        <v>981.85699999999997</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.037700</v>
+        <v>-88.037700000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>42396.001716</v>
+        <v>42396.001715999999</v>
       </c>
       <c r="AP21" s="1">
         <v>11.776667</v>
       </c>
       <c r="AQ21" s="1">
-        <v>991.267000</v>
+        <v>991.26700000000005</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.262000</v>
+        <v>-103.262</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>42407.099173</v>
+        <v>42407.099173000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>11.779750</v>
+        <v>11.77975</v>
       </c>
       <c r="AV21" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="AW21" s="1">
-        <v>-125.032000</v>
+        <v>-125.032</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>42418.075640</v>
+        <v>42418.075640000003</v>
       </c>
       <c r="AZ21" s="1">
-        <v>11.782799</v>
+        <v>11.782799000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1012.500000</v>
+        <v>1012.5</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.997000</v>
+        <v>-143.99700000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>42428.772856</v>
+        <v>42428.772856000003</v>
       </c>
       <c r="BE21" s="1">
-        <v>11.785770</v>
+        <v>11.785769999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1057.940000</v>
+        <v>1057.94</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.718000</v>
+        <v>-229.71799999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>42439.847034</v>
+        <v>42439.847033999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>11.788846</v>
+        <v>11.788845999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1137.460000</v>
+        <v>1137.46</v>
       </c>
       <c r="BL21" s="1">
-        <v>-367.732000</v>
+        <v>-367.73200000000003</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>42451.085912</v>
+        <v>42451.085912000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>11.791968</v>
+        <v>11.791968000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1269.320000</v>
+        <v>1269.32</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-581.971000</v>
+        <v>-581.971</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>42461.426020</v>
+        <v>42461.426019999999</v>
       </c>
       <c r="BT21" s="1">
         <v>11.794841</v>
       </c>
       <c r="BU21" s="1">
-        <v>1418.250000</v>
+        <v>1418.25</v>
       </c>
       <c r="BV21" s="1">
-        <v>-812.061000</v>
+        <v>-812.06100000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>42472.272496</v>
+        <v>42472.272495999998</v>
       </c>
       <c r="BY21" s="1">
         <v>11.797853</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1582.200000</v>
+        <v>1582.2</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1051.680000</v>
+        <v>-1051.68</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>42485.114911</v>
+        <v>42485.114910999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>11.801421</v>
+        <v>11.801420999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1997.730000</v>
+        <v>1997.73</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1613.730000</v>
+        <v>-1613.73</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>42311.180871</v>
+        <v>42311.180870999997</v>
       </c>
       <c r="B22" s="1">
-        <v>11.753106</v>
+        <v>11.753106000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>912.061000</v>
+        <v>912.06100000000004</v>
       </c>
       <c r="D22" s="1">
-        <v>-182.822000</v>
+        <v>-182.822</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>42321.726277</v>
+        <v>42321.726277000002</v>
       </c>
       <c r="G22" s="1">
-        <v>11.756035</v>
+        <v>11.756035000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>926.648000</v>
+        <v>926.64800000000002</v>
       </c>
       <c r="I22" s="1">
-        <v>-155.653000</v>
+        <v>-155.65299999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>42332.145239</v>
+        <v>42332.145238999998</v>
       </c>
       <c r="L22" s="1">
         <v>11.758929</v>
       </c>
       <c r="M22" s="1">
-        <v>947.114000</v>
+        <v>947.11400000000003</v>
       </c>
       <c r="N22" s="1">
-        <v>-113.827000</v>
+        <v>-113.827</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>42342.712508</v>
+        <v>42342.712507999997</v>
       </c>
       <c r="Q22" s="1">
         <v>11.761865</v>
       </c>
       <c r="R22" s="1">
-        <v>953.603000</v>
+        <v>953.60299999999995</v>
       </c>
       <c r="S22" s="1">
-        <v>-100.090000</v>
+        <v>-100.09</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>42353.192509</v>
       </c>
       <c r="V22" s="1">
-        <v>11.764776</v>
+        <v>11.764775999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>960.358000</v>
+        <v>960.35799999999995</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.961300</v>
+        <v>-87.961299999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>42363.679886</v>
+        <v>42363.679885999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>11.767689</v>
+        <v>11.767689000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>968.141000</v>
+        <v>968.14099999999996</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.814000</v>
+        <v>-79.813999999999993</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>42374.137539</v>
+        <v>42374.137539000003</v>
       </c>
       <c r="AF22" s="1">
-        <v>11.770594</v>
+        <v>11.770593999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>973.577000</v>
+        <v>973.577</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.886300</v>
+        <v>-79.886300000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>42385.036659</v>
+        <v>42385.036658999998</v>
       </c>
       <c r="AK22" s="1">
         <v>11.773621</v>
       </c>
       <c r="AL22" s="1">
-        <v>981.855000</v>
+        <v>981.85500000000002</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.029700</v>
+        <v>-88.029700000000005</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>42396.362275</v>
+        <v>42396.362274999999</v>
       </c>
       <c r="AP22" s="1">
         <v>11.776767</v>
       </c>
       <c r="AQ22" s="1">
-        <v>991.253000</v>
+        <v>991.25300000000004</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.231000</v>
+        <v>-103.23099999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>42407.484101</v>
+        <v>42407.484101000002</v>
       </c>
       <c r="AU22" s="1">
         <v>11.779857</v>
       </c>
       <c r="AV22" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="AW22" s="1">
-        <v>-125.032000</v>
+        <v>-125.032</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>42418.435735</v>
+        <v>42418.435734999999</v>
       </c>
       <c r="AZ22" s="1">
         <v>11.782899</v>
       </c>
       <c r="BA22" s="1">
-        <v>1012.510000</v>
+        <v>1012.51</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.960000</v>
+        <v>-143.96</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>42429.451879</v>
@@ -5786,91 +6202,91 @@
         <v>11.785959</v>
       </c>
       <c r="BF22" s="1">
-        <v>1057.930000</v>
+        <v>1057.93</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.711000</v>
+        <v>-229.71100000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>42440.535976</v>
+        <v>42440.535975999999</v>
       </c>
       <c r="BJ22" s="1">
         <v>11.789038</v>
       </c>
       <c r="BK22" s="1">
-        <v>1137.480000</v>
+        <v>1137.48</v>
       </c>
       <c r="BL22" s="1">
-        <v>-367.717000</v>
+        <v>-367.71699999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>42451.194043</v>
+        <v>42451.194043000003</v>
       </c>
       <c r="BO22" s="1">
         <v>11.791998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1269.320000</v>
+        <v>1269.32</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-581.983000</v>
+        <v>-581.98299999999995</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>42461.860972</v>
+        <v>42461.860972000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>11.794961</v>
+        <v>11.794961000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1418.290000</v>
+        <v>1418.29</v>
       </c>
       <c r="BV22" s="1">
-        <v>-812.071000</v>
+        <v>-812.07100000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>42472.705536</v>
+        <v>42472.705536000001</v>
       </c>
       <c r="BY22" s="1">
         <v>11.797974</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1582.090000</v>
+        <v>1582.09</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1051.780000</v>
+        <v>-1051.78</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>42485.629901</v>
       </c>
       <c r="CD22" s="1">
-        <v>11.801564</v>
+        <v>11.801564000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1999.230000</v>
+        <v>1999.23</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1613.750000</v>
+        <v>-1613.75</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>42311.614835</v>
       </c>
@@ -5878,256 +6294,256 @@
         <v>11.753226</v>
       </c>
       <c r="C23" s="1">
-        <v>911.946000</v>
+        <v>911.94600000000003</v>
       </c>
       <c r="D23" s="1">
-        <v>-182.726000</v>
+        <v>-182.726</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>42321.990677</v>
+        <v>42321.990677000002</v>
       </c>
       <c r="G23" s="1">
         <v>11.756109</v>
       </c>
       <c r="H23" s="1">
-        <v>926.658000</v>
+        <v>926.65800000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>-155.779000</v>
+        <v>-155.779</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>42332.489463</v>
+        <v>42332.489462999998</v>
       </c>
       <c r="L23" s="1">
-        <v>11.759025</v>
+        <v>11.759024999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>947.114000</v>
+        <v>947.11400000000003</v>
       </c>
       <c r="N23" s="1">
-        <v>-113.624000</v>
+        <v>-113.624</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>42343.061722</v>
+        <v>42343.061721999999</v>
       </c>
       <c r="Q23" s="1">
         <v>11.761962</v>
       </c>
       <c r="R23" s="1">
-        <v>953.624000</v>
+        <v>953.62400000000002</v>
       </c>
       <c r="S23" s="1">
-        <v>-100.106000</v>
+        <v>-100.10599999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>42353.536245</v>
+        <v>42353.536245000003</v>
       </c>
       <c r="V23" s="1">
-        <v>11.764871</v>
+        <v>11.764870999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>960.409000</v>
+        <v>960.40899999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.036100</v>
+        <v>-88.036100000000005</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>42364.376271</v>
+        <v>42364.376271000001</v>
       </c>
       <c r="AA23" s="1">
         <v>11.767882</v>
       </c>
       <c r="AB23" s="1">
-        <v>968.305000</v>
+        <v>968.30499999999995</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.698000</v>
+        <v>-79.697999999999993</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>42374.824496</v>
+        <v>42374.824496000001</v>
       </c>
       <c r="AF23" s="1">
         <v>11.770785</v>
       </c>
       <c r="AG23" s="1">
-        <v>973.587000</v>
+        <v>973.58699999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.865600</v>
+        <v>-79.865600000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>42385.381843</v>
+        <v>42385.381843000003</v>
       </c>
       <c r="AK23" s="1">
         <v>11.773717</v>
       </c>
       <c r="AL23" s="1">
-        <v>981.860000</v>
+        <v>981.86</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.049500</v>
+        <v>-88.049499999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>42396.723394</v>
+        <v>42396.723394000001</v>
       </c>
       <c r="AP23" s="1">
         <v>11.776868</v>
       </c>
       <c r="AQ23" s="1">
-        <v>991.283000</v>
+        <v>991.28300000000002</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.243000</v>
+        <v>-103.24299999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>42407.847667</v>
+        <v>42407.847667000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>11.779958</v>
+        <v>11.779958000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1002.800000</v>
+        <v>1002.8</v>
       </c>
       <c r="AW23" s="1">
-        <v>-125.045000</v>
+        <v>-125.045</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>42419.110789</v>
+        <v>42419.110788999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>11.783086</v>
+        <v>11.783086000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1012.510000</v>
+        <v>1012.51</v>
       </c>
       <c r="BB23" s="1">
-        <v>-144.005000</v>
+        <v>-144.005</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>42429.874472</v>
+        <v>42429.874472000003</v>
       </c>
       <c r="BE23" s="1">
         <v>11.786076</v>
       </c>
       <c r="BF23" s="1">
-        <v>1057.940000</v>
+        <v>1057.94</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.735000</v>
+        <v>-229.73500000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>42441.001720</v>
+        <v>42441.00172</v>
       </c>
       <c r="BJ23" s="1">
-        <v>11.789167</v>
+        <v>11.789167000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1137.480000</v>
+        <v>1137.48</v>
       </c>
       <c r="BL23" s="1">
-        <v>-367.720000</v>
+        <v>-367.72</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>42451.616603</v>
+        <v>42451.616603000002</v>
       </c>
       <c r="BO23" s="1">
         <v>11.792116</v>
       </c>
       <c r="BP23" s="1">
-        <v>1269.370000</v>
+        <v>1269.3699999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-581.976000</v>
+        <v>-581.976</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>42462.272156</v>
+        <v>42462.272155999999</v>
       </c>
       <c r="BT23" s="1">
         <v>11.795076</v>
       </c>
       <c r="BU23" s="1">
-        <v>1418.280000</v>
+        <v>1418.28</v>
       </c>
       <c r="BV23" s="1">
-        <v>-812.026000</v>
+        <v>-812.02599999999995</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>42473.127629</v>
+        <v>42473.127629000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>11.798091</v>
+        <v>11.798090999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1582.070000</v>
+        <v>1582.07</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1051.750000</v>
+        <v>-1051.75</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>42486.147614</v>
+        <v>42486.147614000001</v>
       </c>
       <c r="CD23" s="1">
         <v>11.801708</v>
       </c>
       <c r="CE23" s="1">
-        <v>1999.210000</v>
+        <v>1999.21</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1612.060000</v>
+        <v>-1612.06</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>42311.882179</v>
       </c>
@@ -6135,28 +6551,28 @@
         <v>11.753301</v>
       </c>
       <c r="C24" s="1">
-        <v>912.026000</v>
+        <v>912.02599999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-182.702000</v>
+        <v>-182.702</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>42322.335365</v>
+        <v>42322.335364999999</v>
       </c>
       <c r="G24" s="1">
         <v>11.756204</v>
       </c>
       <c r="H24" s="1">
-        <v>926.205000</v>
+        <v>926.20500000000004</v>
       </c>
       <c r="I24" s="1">
-        <v>-155.502000</v>
+        <v>-155.50200000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>42332.835175</v>
@@ -6165,28 +6581,28 @@
         <v>11.759121</v>
       </c>
       <c r="M24" s="1">
-        <v>947.150000</v>
+        <v>947.15</v>
       </c>
       <c r="N24" s="1">
-        <v>-113.749000</v>
+        <v>-113.749</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>42343.409084</v>
+        <v>42343.409083999999</v>
       </c>
       <c r="Q24" s="1">
         <v>11.762058</v>
       </c>
       <c r="R24" s="1">
-        <v>953.695000</v>
+        <v>953.69500000000005</v>
       </c>
       <c r="S24" s="1">
-        <v>-100.092000</v>
+        <v>-100.092</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>42354.221674</v>
@@ -6195,58 +6611,58 @@
         <v>11.765062</v>
       </c>
       <c r="W24" s="1">
-        <v>960.458000</v>
+        <v>960.45799999999997</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.928700</v>
+        <v>-87.928700000000006</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>42364.723469</v>
+        <v>42364.723468999997</v>
       </c>
       <c r="AA24" s="1">
         <v>11.767979</v>
       </c>
       <c r="AB24" s="1">
-        <v>968.260000</v>
+        <v>968.26</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.735000</v>
+        <v>-79.734999999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>42375.168224</v>
+        <v>42375.168224000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>11.770880</v>
+        <v>11.77088</v>
       </c>
       <c r="AG24" s="1">
-        <v>973.564000</v>
+        <v>973.56399999999996</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.840000</v>
+        <v>-79.84</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>42385.732546</v>
+        <v>42385.732545999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>11.773815</v>
+        <v>11.773815000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>981.880000</v>
+        <v>981.88</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.057600</v>
+        <v>-88.057599999999994</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>42397.391505</v>
@@ -6255,43 +6671,43 @@
         <v>11.777053</v>
       </c>
       <c r="AQ24" s="1">
-        <v>991.289000</v>
+        <v>991.28899999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.252000</v>
+        <v>-103.252</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>42408.518228</v>
+        <v>42408.518228000001</v>
       </c>
       <c r="AU24" s="1">
         <v>11.780144</v>
       </c>
       <c r="AV24" s="1">
-        <v>1002.800000</v>
+        <v>1002.8</v>
       </c>
       <c r="AW24" s="1">
-        <v>-125.034000</v>
+        <v>-125.03400000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>42419.545780</v>
+        <v>42419.54578</v>
       </c>
       <c r="AZ24" s="1">
-        <v>11.783207</v>
+        <v>11.783207000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1012.500000</v>
+        <v>1012.5</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.976000</v>
+        <v>-143.976</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>42430.266806</v>
@@ -6300,392 +6716,392 @@
         <v>11.786185</v>
       </c>
       <c r="BF24" s="1">
-        <v>1057.950000</v>
+        <v>1057.95</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.735000</v>
+        <v>-229.73500000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>42441.392567</v>
+        <v>42441.392567000003</v>
       </c>
       <c r="BJ24" s="1">
-        <v>11.789276</v>
+        <v>11.789275999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1137.470000</v>
+        <v>1137.47</v>
       </c>
       <c r="BL24" s="1">
-        <v>-367.724000</v>
+        <v>-367.72399999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>42452.015387</v>
+        <v>42452.015386999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>11.792226</v>
+        <v>11.792225999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1269.340000</v>
+        <v>1269.3399999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-581.970000</v>
+        <v>-581.97</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>42462.705163</v>
+        <v>42462.705162999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>11.795196</v>
+        <v>11.795196000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1418.290000</v>
+        <v>1418.29</v>
       </c>
       <c r="BV24" s="1">
-        <v>-812.065000</v>
+        <v>-812.06500000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>42473.554654</v>
       </c>
       <c r="BY24" s="1">
-        <v>11.798210</v>
+        <v>11.798209999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1582.130000</v>
+        <v>1582.13</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1051.800000</v>
+        <v>-1051.8</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>42486.665900</v>
+        <v>42486.6659</v>
       </c>
       <c r="CD24" s="1">
         <v>11.801852</v>
       </c>
       <c r="CE24" s="1">
-        <v>1999.360000</v>
+        <v>1999.36</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1612.640000</v>
+        <v>-1612.64</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>42312.221940</v>
+        <v>42312.221940000003</v>
       </c>
       <c r="B25" s="1">
-        <v>11.753395</v>
+        <v>11.753394999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>912.152000</v>
+        <v>912.15200000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>-182.768000</v>
+        <v>-182.768</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>42322.681108</v>
+        <v>42322.681107999997</v>
       </c>
       <c r="G25" s="1">
-        <v>11.756300</v>
+        <v>11.7563</v>
       </c>
       <c r="H25" s="1">
-        <v>926.433000</v>
+        <v>926.43299999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-156.059000</v>
+        <v>-156.059</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>42333.531559</v>
+        <v>42333.531559000003</v>
       </c>
       <c r="L25" s="1">
         <v>11.759314</v>
       </c>
       <c r="M25" s="1">
-        <v>947.176000</v>
+        <v>947.17600000000004</v>
       </c>
       <c r="N25" s="1">
-        <v>-113.687000</v>
+        <v>-113.687</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>42344.105272</v>
+        <v>42344.105272000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>11.762251</v>
+        <v>11.762250999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>953.672000</v>
+        <v>953.67200000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-100.104000</v>
+        <v>-100.104</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>42354.568378</v>
+        <v>42354.568378000004</v>
       </c>
       <c r="V25" s="1">
         <v>11.765158</v>
       </c>
       <c r="W25" s="1">
-        <v>960.475000</v>
+        <v>960.47500000000002</v>
       </c>
       <c r="X25" s="1">
-        <v>-87.934600</v>
+        <v>-87.934600000000003</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>42365.069676</v>
+        <v>42365.069675999999</v>
       </c>
       <c r="AA25" s="1">
         <v>11.768075</v>
       </c>
       <c r="AB25" s="1">
-        <v>968.114000</v>
+        <v>968.11400000000003</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.780900</v>
+        <v>-79.780900000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>42375.511986</v>
+        <v>42375.511985999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>11.770976</v>
+        <v>11.770975999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>973.594000</v>
+        <v>973.59400000000005</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.861200</v>
+        <v>-79.861199999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>42386.396160</v>
+        <v>42386.396159999997</v>
       </c>
       <c r="AK25" s="1">
         <v>11.773999</v>
       </c>
       <c r="AL25" s="1">
-        <v>981.866000</v>
+        <v>981.86599999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.049900</v>
+        <v>-88.049899999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>42397.832945</v>
+        <v>42397.832945000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>11.777176</v>
+        <v>11.777176000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>991.269000</v>
+        <v>991.26900000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.249000</v>
+        <v>-103.249</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>42408.974051</v>
+        <v>42408.974050999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>11.780271</v>
+        <v>11.780271000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1002.810000</v>
+        <v>1002.81</v>
       </c>
       <c r="AW25" s="1">
-        <v>-125.050000</v>
+        <v>-125.05</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>42419.903397</v>
+        <v>42419.903397000002</v>
       </c>
       <c r="AZ25" s="1">
         <v>11.783306</v>
       </c>
       <c r="BA25" s="1">
-        <v>1012.520000</v>
+        <v>1012.52</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.992000</v>
+        <v>-143.99199999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>42430.626904</v>
+        <v>42430.626903999997</v>
       </c>
       <c r="BE25" s="1">
-        <v>11.786285</v>
+        <v>11.786284999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1057.920000</v>
+        <v>1057.92</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.721000</v>
+        <v>-229.721</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>42441.767051</v>
+        <v>42441.767051000003</v>
       </c>
       <c r="BJ25" s="1">
-        <v>11.789380</v>
+        <v>11.78938</v>
       </c>
       <c r="BK25" s="1">
-        <v>1137.490000</v>
+        <v>1137.49</v>
       </c>
       <c r="BL25" s="1">
-        <v>-367.710000</v>
+        <v>-367.71</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>42452.439999</v>
+        <v>42452.439999000002</v>
       </c>
       <c r="BO25" s="1">
         <v>11.792344</v>
       </c>
       <c r="BP25" s="1">
-        <v>1269.390000</v>
+        <v>1269.3900000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-581.995000</v>
+        <v>-581.995</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>42463.132220</v>
+        <v>42463.13222</v>
       </c>
       <c r="BT25" s="1">
         <v>11.795315</v>
       </c>
       <c r="BU25" s="1">
-        <v>1418.300000</v>
+        <v>1418.3</v>
       </c>
       <c r="BV25" s="1">
-        <v>-812.044000</v>
+        <v>-812.04399999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>42473.976253</v>
+        <v>42473.976253000001</v>
       </c>
       <c r="BY25" s="1">
         <v>11.798327</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1582.040000</v>
+        <v>1582.04</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1051.680000</v>
+        <v>-1051.68</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>42487.219436</v>
+        <v>42487.219435999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>11.802005</v>
+        <v>11.802004999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1999.700000</v>
+        <v>1999.7</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1613.350000</v>
+        <v>-1613.35</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>42312.826561</v>
+        <v>42312.826561000002</v>
       </c>
       <c r="B26" s="1">
         <v>11.753563</v>
       </c>
       <c r="C26" s="1">
-        <v>912.122000</v>
+        <v>912.12199999999996</v>
       </c>
       <c r="D26" s="1">
-        <v>-182.655000</v>
+        <v>-182.655</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>42323.372004</v>
+        <v>42323.372003999997</v>
       </c>
       <c r="G26" s="1">
         <v>11.756492</v>
       </c>
       <c r="H26" s="1">
-        <v>926.949000</v>
+        <v>926.94899999999996</v>
       </c>
       <c r="I26" s="1">
-        <v>-155.457000</v>
+        <v>-155.45699999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>42333.880774</v>
+        <v>42333.880773999997</v>
       </c>
       <c r="L26" s="1">
         <v>11.759411</v>
       </c>
       <c r="M26" s="1">
-        <v>947.019000</v>
+        <v>947.01900000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-113.790000</v>
+        <v>-113.79</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>42344.454951</v>
@@ -6694,88 +7110,88 @@
         <v>11.762349</v>
       </c>
       <c r="R26" s="1">
-        <v>953.659000</v>
+        <v>953.65899999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-100.148000</v>
+        <v>-100.148</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>42354.912141</v>
+        <v>42354.912141000001</v>
       </c>
       <c r="V26" s="1">
         <v>11.765253</v>
       </c>
       <c r="W26" s="1">
-        <v>960.435000</v>
+        <v>960.43499999999995</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.113200</v>
+        <v>-88.113200000000006</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>42365.727869</v>
+        <v>42365.727869000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>11.768258</v>
+        <v>11.768257999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>968.160000</v>
+        <v>968.16</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.765700</v>
+        <v>-79.765699999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>42376.175134</v>
+        <v>42376.175133999997</v>
       </c>
       <c r="AF26" s="1">
-        <v>11.771160</v>
+        <v>11.77116</v>
       </c>
       <c r="AG26" s="1">
-        <v>973.553000</v>
+        <v>973.553</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.839500</v>
+        <v>-79.839500000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>42386.780594</v>
+        <v>42386.780594000003</v>
       </c>
       <c r="AK26" s="1">
         <v>11.774106</v>
       </c>
       <c r="AL26" s="1">
-        <v>981.865000</v>
+        <v>981.86500000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.049100</v>
+        <v>-88.049099999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>42398.194033</v>
       </c>
       <c r="AP26" s="1">
-        <v>11.777276</v>
+        <v>11.777276000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>991.284000</v>
+        <v>991.28399999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.245000</v>
+        <v>-103.245</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>42409.339603</v>
@@ -6784,103 +7200,103 @@
         <v>11.780372</v>
       </c>
       <c r="AV26" s="1">
-        <v>1002.800000</v>
+        <v>1002.8</v>
       </c>
       <c r="AW26" s="1">
-        <v>-125.034000</v>
+        <v>-125.03400000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>42420.262997</v>
+        <v>42420.262996999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>11.783406</v>
+        <v>11.783405999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1012.510000</v>
+        <v>1012.51</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.972000</v>
+        <v>-143.97200000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>42431.066853</v>
+        <v>42431.066852999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>11.786407</v>
+        <v>11.786407000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1057.940000</v>
+        <v>1057.94</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.712000</v>
+        <v>-229.71199999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>42442.196086</v>
+        <v>42442.196086000004</v>
       </c>
       <c r="BJ26" s="1">
-        <v>11.789499</v>
+        <v>11.789498999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1137.470000</v>
+        <v>1137.47</v>
       </c>
       <c r="BL26" s="1">
-        <v>-367.735000</v>
+        <v>-367.73500000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>42452.832658</v>
+        <v>42452.832657999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>11.792454</v>
+        <v>11.792453999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1269.340000</v>
+        <v>1269.3399999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-582.000000</v>
+        <v>-582</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>42463.545388</v>
+        <v>42463.545387999999</v>
       </c>
       <c r="BT26" s="1">
         <v>11.795429</v>
       </c>
       <c r="BU26" s="1">
-        <v>1418.280000</v>
+        <v>1418.28</v>
       </c>
       <c r="BV26" s="1">
-        <v>-812.041000</v>
+        <v>-812.04100000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>42474.393388</v>
+        <v>42474.393387999997</v>
       </c>
       <c r="BY26" s="1">
-        <v>11.798443</v>
+        <v>11.798443000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1582.130000</v>
+        <v>1582.13</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1051.580000</v>
+        <v>-1051.58</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>42487.748666</v>
@@ -6889,15 +7305,16 @@
         <v>11.802152</v>
       </c>
       <c r="CE26" s="1">
-        <v>1998.640000</v>
+        <v>1998.64</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1611.720000</v>
+        <v>-1611.72</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>